--- a/社員別交通費一覧機能/詳細設計書_社員別交通費一覧画面_マッパー.xlsx
+++ b/社員別交通費一覧機能/詳細設計書_社員別交通費一覧画面_マッパー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\社員別交通費一覧機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2640A384-49B8-49A5-BF52-BF92AB0C7E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B60086-0F37-4841-B1BC-D57EEF26D25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="30" windowWidth="13280" windowHeight="10050" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要 _交通費申請マッパー_社員別交通費一覧" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'クラス概要 _交通費申請マッパー_社員別交通費一覧'!$A$1:$BQ$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">検索処理社員別交通費一覧!$A$1:$BQ$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">検索処理社員別交通費一覧!$A$1:$BQ$31</definedName>
     <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
     <t>システム名</t>
   </si>
@@ -326,13 +326,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>引数1-1</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>引数1-3</t>
-  </si>
-  <si>
     <t>引数1-4</t>
   </si>
   <si>
@@ -473,9 +466,6 @@
     <t>引数1-5</t>
   </si>
   <si>
-    <t>引数1-6</t>
-  </si>
-  <si>
     <t>検索指定日参照値</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -590,9 +580,6 @@
   <si>
     <t>検索処理社員別交通費一覧</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>社員ID</t>
   </si>
   <si>
     <t>交通費申請テーブル全項目</t>
@@ -906,20 +893,11 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>引数1ｰ2</t>
-  </si>
-  <si>
-    <t>選択社員IDリスト</t>
-  </si>
-  <si>
     <t>検索対象となる社員IDと社員名のリスト</t>
     <rPh sb="12" eb="15">
       <t>シャインメイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>&lt;表示用Id名前クラス&gt;</t>
   </si>
   <si>
     <t>交通費請求機能</t>
@@ -937,6 +915,58 @@
   </si>
   <si>
     <t>社員別検索条件ParamObj.検索指定日参照値の値を参照し、</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択社員IDリスト</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数1ｰ1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数1-2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数1-3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>&lt;表示用Id名前クラス&gt;</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数.選択社員IDリスト&lt;表示用Id名前クラス&gt;の社員IDを一件ずつ取り出し、</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イッケン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TETable.社員ID = 引数.社員ID</t>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シャイン</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1509,6 +1539,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,7 +1636,49 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1610,76 +1710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1892,243 +1922,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="53" t="s">
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
-      <c r="BJ1" s="53"/>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
-        <v>111</v>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65" t="s">
+        <v>107</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="56" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56" t="s">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56" t="s">
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="67"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="62" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="63">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73">
         <v>45509</v>
       </c>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="62" t="s">
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -2195,215 +2225,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="65" t="s">
-        <v>80</v>
+      <c r="C6" s="75" t="s">
+        <v>77</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="65"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-      <c r="AZ6" s="65"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
-      <c r="BC6" s="65"/>
-      <c r="BD6" s="65"/>
-      <c r="BE6" s="65"/>
-      <c r="BF6" s="65"/>
-      <c r="BG6" s="65"/>
-      <c r="BH6" s="65"/>
-      <c r="BI6" s="65"/>
-      <c r="BJ6" s="65"/>
-      <c r="BK6" s="65"/>
-      <c r="BL6" s="65"/>
-      <c r="BM6" s="65"/>
-      <c r="BN6" s="65"/>
-      <c r="BO6" s="65"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="75"/>
+      <c r="AP6" s="75"/>
+      <c r="AQ6" s="75"/>
+      <c r="AR6" s="75"/>
+      <c r="AS6" s="75"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="75"/>
+      <c r="BG6" s="75"/>
+      <c r="BH6" s="75"/>
+      <c r="BI6" s="75"/>
+      <c r="BJ6" s="75"/>
+      <c r="BK6" s="75"/>
+      <c r="BL6" s="75"/>
+      <c r="BM6" s="75"/>
+      <c r="BN6" s="75"/>
+      <c r="BO6" s="75"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65"/>
-      <c r="BI7" s="65"/>
-      <c r="BJ7" s="65"/>
-      <c r="BK7" s="65"/>
-      <c r="BL7" s="65"/>
-      <c r="BM7" s="65"/>
-      <c r="BN7" s="65"/>
-      <c r="BO7" s="65"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="75"/>
+      <c r="BG7" s="75"/>
+      <c r="BH7" s="75"/>
+      <c r="BI7" s="75"/>
+      <c r="BJ7" s="75"/>
+      <c r="BK7" s="75"/>
+      <c r="BL7" s="75"/>
+      <c r="BM7" s="75"/>
+      <c r="BN7" s="75"/>
+      <c r="BO7" s="75"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="58"/>
-      <c r="AN8" s="58"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="58"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="58"/>
-      <c r="AU8" s="58"/>
-      <c r="AV8" s="58"/>
-      <c r="AW8" s="58"/>
-      <c r="AX8" s="58"/>
-      <c r="AY8" s="58"/>
-      <c r="AZ8" s="58"/>
-      <c r="BA8" s="58"/>
-      <c r="BB8" s="58"/>
-      <c r="BC8" s="58"/>
-      <c r="BD8" s="58"/>
-      <c r="BE8" s="58"/>
-      <c r="BF8" s="58"/>
-      <c r="BG8" s="58"/>
-      <c r="BH8" s="58"/>
-      <c r="BI8" s="58"/>
-      <c r="BJ8" s="58"/>
-      <c r="BK8" s="58"/>
-      <c r="BL8" s="58"/>
-      <c r="BM8" s="58"/>
-      <c r="BN8" s="58"/>
-      <c r="BO8" s="58"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -2456,787 +2486,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="56" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="59" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="60" t="s">
-        <v>66</v>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="70" t="s">
+        <v>64</v>
       </c>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="70"/>
+      <c r="BG11" s="70"/>
+      <c r="BH11" s="70"/>
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="70"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="70"/>
+      <c r="BM11" s="70"/>
+      <c r="BN11" s="70"/>
+      <c r="BO11" s="70"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="61"/>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="61"/>
-      <c r="BB12" s="61"/>
-      <c r="BC12" s="61"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="61"/>
-      <c r="BF12" s="61"/>
-      <c r="BG12" s="61"/>
-      <c r="BH12" s="61"/>
-      <c r="BI12" s="61"/>
-      <c r="BJ12" s="61"/>
-      <c r="BK12" s="61"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="61"/>
-      <c r="BN12" s="61"/>
-      <c r="BO12" s="61"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="71"/>
+      <c r="BA12" s="71"/>
+      <c r="BB12" s="71"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="71"/>
+      <c r="BH12" s="71"/>
+      <c r="BI12" s="71"/>
+      <c r="BJ12" s="71"/>
+      <c r="BK12" s="71"/>
+      <c r="BL12" s="71"/>
+      <c r="BM12" s="71"/>
+      <c r="BN12" s="71"/>
+      <c r="BO12" s="71"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="61"/>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="61"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="61"/>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="61"/>
-      <c r="BA13" s="61"/>
-      <c r="BB13" s="61"/>
-      <c r="BC13" s="61"/>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="61"/>
-      <c r="BF13" s="61"/>
-      <c r="BG13" s="61"/>
-      <c r="BH13" s="61"/>
-      <c r="BI13" s="61"/>
-      <c r="BJ13" s="61"/>
-      <c r="BK13" s="61"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="61"/>
-      <c r="BN13" s="61"/>
-      <c r="BO13" s="61"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="71"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="71"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="71"/>
+      <c r="BG13" s="71"/>
+      <c r="BH13" s="71"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="71"/>
+      <c r="BK13" s="71"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="71"/>
+      <c r="BN13" s="71"/>
+      <c r="BO13" s="71"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="67" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="67"/>
-      <c r="BD14" s="67"/>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="67"/>
-      <c r="BH14" s="67"/>
-      <c r="BI14" s="67"/>
-      <c r="BJ14" s="67"/>
-      <c r="BK14" s="67"/>
-      <c r="BL14" s="67"/>
-      <c r="BM14" s="67"/>
-      <c r="BN14" s="67"/>
-      <c r="BO14" s="67"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="77"/>
+      <c r="AZ14" s="77"/>
+      <c r="BA14" s="77"/>
+      <c r="BB14" s="77"/>
+      <c r="BC14" s="77"/>
+      <c r="BD14" s="77"/>
+      <c r="BE14" s="77"/>
+      <c r="BF14" s="77"/>
+      <c r="BG14" s="77"/>
+      <c r="BH14" s="77"/>
+      <c r="BI14" s="77"/>
+      <c r="BJ14" s="77"/>
+      <c r="BK14" s="77"/>
+      <c r="BL14" s="77"/>
+      <c r="BM14" s="77"/>
+      <c r="BN14" s="77"/>
+      <c r="BO14" s="77"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="68"/>
-      <c r="BN15" s="68"/>
-      <c r="BO15" s="68"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
+      <c r="BA15" s="78"/>
+      <c r="BB15" s="78"/>
+      <c r="BC15" s="78"/>
+      <c r="BD15" s="78"/>
+      <c r="BE15" s="78"/>
+      <c r="BF15" s="78"/>
+      <c r="BG15" s="78"/>
+      <c r="BH15" s="78"/>
+      <c r="BI15" s="78"/>
+      <c r="BJ15" s="78"/>
+      <c r="BK15" s="78"/>
+      <c r="BL15" s="78"/>
+      <c r="BM15" s="78"/>
+      <c r="BN15" s="78"/>
+      <c r="BO15" s="78"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="68"/>
-      <c r="BM16" s="68"/>
-      <c r="BN16" s="68"/>
-      <c r="BO16" s="68"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="78"/>
+      <c r="AZ16" s="78"/>
+      <c r="BA16" s="78"/>
+      <c r="BB16" s="78"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="78"/>
+      <c r="BE16" s="78"/>
+      <c r="BF16" s="78"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="78"/>
+      <c r="BI16" s="78"/>
+      <c r="BJ16" s="78"/>
+      <c r="BK16" s="78"/>
+      <c r="BL16" s="78"/>
+      <c r="BM16" s="78"/>
+      <c r="BN16" s="78"/>
+      <c r="BO16" s="78"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="68"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="68"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-      <c r="BF17" s="68"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="68"/>
-      <c r="BI17" s="68"/>
-      <c r="BJ17" s="68"/>
-      <c r="BK17" s="68"/>
-      <c r="BL17" s="68"/>
-      <c r="BM17" s="68"/>
-      <c r="BN17" s="68"/>
-      <c r="BO17" s="68"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="78"/>
+      <c r="AZ17" s="78"/>
+      <c r="BA17" s="78"/>
+      <c r="BB17" s="78"/>
+      <c r="BC17" s="78"/>
+      <c r="BD17" s="78"/>
+      <c r="BE17" s="78"/>
+      <c r="BF17" s="78"/>
+      <c r="BG17" s="78"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="78"/>
+      <c r="BJ17" s="78"/>
+      <c r="BK17" s="78"/>
+      <c r="BL17" s="78"/>
+      <c r="BM17" s="78"/>
+      <c r="BN17" s="78"/>
+      <c r="BO17" s="78"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
-      <c r="AK18" s="68"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="68"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="78"/>
+      <c r="AY18" s="78"/>
+      <c r="AZ18" s="78"/>
+      <c r="BA18" s="78"/>
+      <c r="BB18" s="78"/>
+      <c r="BC18" s="78"/>
+      <c r="BD18" s="78"/>
+      <c r="BE18" s="78"/>
+      <c r="BF18" s="78"/>
+      <c r="BG18" s="78"/>
+      <c r="BH18" s="78"/>
+      <c r="BI18" s="78"/>
+      <c r="BJ18" s="78"/>
+      <c r="BK18" s="78"/>
+      <c r="BL18" s="78"/>
+      <c r="BM18" s="78"/>
+      <c r="BN18" s="78"/>
+      <c r="BO18" s="78"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="68"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="78"/>
+      <c r="BC19" s="78"/>
+      <c r="BD19" s="78"/>
+      <c r="BE19" s="78"/>
+      <c r="BF19" s="78"/>
+      <c r="BG19" s="78"/>
+      <c r="BH19" s="78"/>
+      <c r="BI19" s="78"/>
+      <c r="BJ19" s="78"/>
+      <c r="BK19" s="78"/>
+      <c r="BL19" s="78"/>
+      <c r="BM19" s="78"/>
+      <c r="BN19" s="78"/>
+      <c r="BO19" s="78"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
-      <c r="BO20" s="68"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="78"/>
+      <c r="AZ20" s="78"/>
+      <c r="BA20" s="78"/>
+      <c r="BB20" s="78"/>
+      <c r="BC20" s="78"/>
+      <c r="BD20" s="78"/>
+      <c r="BE20" s="78"/>
+      <c r="BF20" s="78"/>
+      <c r="BG20" s="78"/>
+      <c r="BH20" s="78"/>
+      <c r="BI20" s="78"/>
+      <c r="BJ20" s="78"/>
+      <c r="BK20" s="78"/>
+      <c r="BL20" s="78"/>
+      <c r="BM20" s="78"/>
+      <c r="BN20" s="78"/>
+      <c r="BO20" s="78"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66"/>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="76"/>
+      <c r="BD21" s="76"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="76"/>
+      <c r="BG21" s="76"/>
+      <c r="BH21" s="76"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="76"/>
+      <c r="BK21" s="76"/>
+      <c r="BL21" s="76"/>
+      <c r="BM21" s="76"/>
+      <c r="BN21" s="76"/>
+      <c r="BO21" s="76"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -3266,85 +3296,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56" t="s">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="61" t="s">
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="59" t="s">
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
-      <c r="AU25" s="59"/>
-      <c r="AV25" s="59"/>
-      <c r="AW25" s="59"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="59"/>
-      <c r="BA25" s="59"/>
-      <c r="BB25" s="59"/>
-      <c r="BC25" s="59"/>
-      <c r="BD25" s="59" t="s">
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="69"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
+      <c r="BC25" s="69"/>
+      <c r="BD25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="59"/>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="59" t="s">
+      <c r="BE25" s="69"/>
+      <c r="BF25" s="69"/>
+      <c r="BG25" s="69"/>
+      <c r="BH25" s="69"/>
+      <c r="BI25" s="69"/>
+      <c r="BJ25" s="69"/>
+      <c r="BK25" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
-      <c r="BN25" s="59"/>
-      <c r="BO25" s="59"/>
+      <c r="BL25" s="69"/>
+      <c r="BM25" s="69"/>
+      <c r="BN25" s="69"/>
+      <c r="BO25" s="69"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -3361,81 +3391,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="56">
+      <c r="C26" s="66">
         <v>1</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="59" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="69" t="s">
-        <v>81</v>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="79" t="s">
+        <v>78</v>
       </c>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="59" t="s">
-        <v>74</v>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="69" t="s">
+        <v>71</v>
       </c>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="59" t="s">
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="69"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="69"/>
+      <c r="AR26" s="69"/>
+      <c r="AS26" s="69"/>
+      <c r="AT26" s="69"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="69"/>
+      <c r="BC26" s="69"/>
+      <c r="BD26" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="59"/>
+      <c r="BE26" s="69"/>
+      <c r="BF26" s="69"/>
+      <c r="BG26" s="69"/>
+      <c r="BH26" s="69"/>
+      <c r="BI26" s="69"/>
+      <c r="BJ26" s="69"/>
+      <c r="BK26" s="69"/>
+      <c r="BL26" s="69"/>
+      <c r="BM26" s="69"/>
+      <c r="BN26" s="69"/>
+      <c r="BO26" s="69"/>
       <c r="BP26"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
@@ -3452,75 +3482,75 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="56">
+      <c r="C27" s="66">
         <v>2</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="66"/>
+      <c r="E27" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="59"/>
-      <c r="AZ27" s="59"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="59"/>
-      <c r="BC27" s="59"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="59"/>
-      <c r="BF27" s="59"/>
-      <c r="BG27" s="59"/>
-      <c r="BH27" s="59"/>
-      <c r="BI27" s="59"/>
-      <c r="BJ27" s="59"/>
-      <c r="BK27" s="59"/>
-      <c r="BL27" s="59"/>
-      <c r="BM27" s="59"/>
-      <c r="BN27" s="59"/>
-      <c r="BO27" s="59"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="69"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="69"/>
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="69"/>
+      <c r="AR27" s="69"/>
+      <c r="AS27" s="69"/>
+      <c r="AT27" s="69"/>
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="69"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69"/>
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="69"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="69"/>
+      <c r="BE27" s="69"/>
+      <c r="BF27" s="69"/>
+      <c r="BG27" s="69"/>
+      <c r="BH27" s="69"/>
+      <c r="BI27" s="69"/>
+      <c r="BJ27" s="69"/>
+      <c r="BK27" s="69"/>
+      <c r="BL27" s="69"/>
+      <c r="BM27" s="69"/>
+      <c r="BN27" s="69"/>
+      <c r="BO27" s="69"/>
       <c r="BP27"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
@@ -3537,73 +3567,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="56">
+      <c r="C28" s="66">
         <v>3</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="59"/>
-      <c r="AT28" s="59"/>
-      <c r="AU28" s="59"/>
-      <c r="AV28" s="59"/>
-      <c r="AW28" s="59"/>
-      <c r="AX28" s="59"/>
-      <c r="AY28" s="59"/>
-      <c r="AZ28" s="59"/>
-      <c r="BA28" s="59"/>
-      <c r="BB28" s="59"/>
-      <c r="BC28" s="59"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="59"/>
-      <c r="BF28" s="59"/>
-      <c r="BG28" s="59"/>
-      <c r="BH28" s="59"/>
-      <c r="BI28" s="59"/>
-      <c r="BJ28" s="59"/>
-      <c r="BK28" s="59"/>
-      <c r="BL28" s="59"/>
-      <c r="BM28" s="59"/>
-      <c r="BN28" s="59"/>
-      <c r="BO28" s="59"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
+      <c r="BC28" s="69"/>
+      <c r="BD28" s="69"/>
+      <c r="BE28" s="69"/>
+      <c r="BF28" s="69"/>
+      <c r="BG28" s="69"/>
+      <c r="BH28" s="69"/>
+      <c r="BI28" s="69"/>
+      <c r="BJ28" s="69"/>
+      <c r="BK28" s="69"/>
+      <c r="BL28" s="69"/>
+      <c r="BM28" s="69"/>
+      <c r="BN28" s="69"/>
+      <c r="BO28" s="69"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3620,73 +3650,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="56">
+      <c r="C29" s="66">
         <v>4</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="61"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="59"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
-      <c r="AU29" s="59"/>
-      <c r="AV29" s="59"/>
-      <c r="AW29" s="59"/>
-      <c r="AX29" s="59"/>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="59"/>
-      <c r="BA29" s="59"/>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="59"/>
-      <c r="BD29" s="59"/>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="59"/>
-      <c r="BJ29" s="59"/>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="59"/>
-      <c r="BM29" s="59"/>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="59"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
+      <c r="BB29" s="69"/>
+      <c r="BC29" s="69"/>
+      <c r="BD29" s="69"/>
+      <c r="BE29" s="69"/>
+      <c r="BF29" s="69"/>
+      <c r="BG29" s="69"/>
+      <c r="BH29" s="69"/>
+      <c r="BI29" s="69"/>
+      <c r="BJ29" s="69"/>
+      <c r="BK29" s="69"/>
+      <c r="BL29" s="69"/>
+      <c r="BM29" s="69"/>
+      <c r="BN29" s="69"/>
+      <c r="BO29" s="69"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3703,73 +3733,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="56">
+      <c r="C30" s="66">
         <v>5</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="61"/>
-      <c r="AB30" s="61"/>
-      <c r="AC30" s="61"/>
-      <c r="AD30" s="61"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="59"/>
-      <c r="AK30" s="59"/>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="59"/>
-      <c r="AN30" s="59"/>
-      <c r="AO30" s="59"/>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="59"/>
-      <c r="AS30" s="59"/>
-      <c r="AT30" s="59"/>
-      <c r="AU30" s="59"/>
-      <c r="AV30" s="59"/>
-      <c r="AW30" s="59"/>
-      <c r="AX30" s="59"/>
-      <c r="AY30" s="59"/>
-      <c r="AZ30" s="59"/>
-      <c r="BA30" s="59"/>
-      <c r="BB30" s="59"/>
-      <c r="BC30" s="59"/>
-      <c r="BD30" s="59"/>
-      <c r="BE30" s="59"/>
-      <c r="BF30" s="59"/>
-      <c r="BG30" s="59"/>
-      <c r="BH30" s="59"/>
-      <c r="BI30" s="59"/>
-      <c r="BJ30" s="59"/>
-      <c r="BK30" s="59"/>
-      <c r="BL30" s="59"/>
-      <c r="BM30" s="59"/>
-      <c r="BN30" s="59"/>
-      <c r="BO30" s="59"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="69"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="69"/>
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="69"/>
+      <c r="AN30" s="69"/>
+      <c r="AO30" s="69"/>
+      <c r="AP30" s="69"/>
+      <c r="AQ30" s="69"/>
+      <c r="AR30" s="69"/>
+      <c r="AS30" s="69"/>
+      <c r="AT30" s="69"/>
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="69"/>
+      <c r="AW30" s="69"/>
+      <c r="AX30" s="69"/>
+      <c r="AY30" s="69"/>
+      <c r="AZ30" s="69"/>
+      <c r="BA30" s="69"/>
+      <c r="BB30" s="69"/>
+      <c r="BC30" s="69"/>
+      <c r="BD30" s="69"/>
+      <c r="BE30" s="69"/>
+      <c r="BF30" s="69"/>
+      <c r="BG30" s="69"/>
+      <c r="BH30" s="69"/>
+      <c r="BI30" s="69"/>
+      <c r="BJ30" s="69"/>
+      <c r="BK30" s="69"/>
+      <c r="BL30" s="69"/>
+      <c r="BM30" s="69"/>
+      <c r="BN30" s="69"/>
+      <c r="BO30" s="69"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3786,73 +3816,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="56">
+      <c r="C31" s="66">
         <v>6</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="61"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="59"/>
-      <c r="AS31" s="59"/>
-      <c r="AT31" s="59"/>
-      <c r="AU31" s="59"/>
-      <c r="AV31" s="59"/>
-      <c r="AW31" s="59"/>
-      <c r="AX31" s="59"/>
-      <c r="AY31" s="59"/>
-      <c r="AZ31" s="59"/>
-      <c r="BA31" s="59"/>
-      <c r="BB31" s="59"/>
-      <c r="BC31" s="59"/>
-      <c r="BD31" s="59"/>
-      <c r="BE31" s="59"/>
-      <c r="BF31" s="59"/>
-      <c r="BG31" s="59"/>
-      <c r="BH31" s="59"/>
-      <c r="BI31" s="59"/>
-      <c r="BJ31" s="59"/>
-      <c r="BK31" s="59"/>
-      <c r="BL31" s="59"/>
-      <c r="BM31" s="59"/>
-      <c r="BN31" s="59"/>
-      <c r="BO31" s="59"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="69"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="69"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="69"/>
+      <c r="AQ31" s="69"/>
+      <c r="AR31" s="69"/>
+      <c r="AS31" s="69"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="69"/>
+      <c r="AZ31" s="69"/>
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
+      <c r="BC31" s="69"/>
+      <c r="BD31" s="69"/>
+      <c r="BE31" s="69"/>
+      <c r="BF31" s="69"/>
+      <c r="BG31" s="69"/>
+      <c r="BH31" s="69"/>
+      <c r="BI31" s="69"/>
+      <c r="BJ31" s="69"/>
+      <c r="BK31" s="69"/>
+      <c r="BL31" s="69"/>
+      <c r="BM31" s="69"/>
+      <c r="BN31" s="69"/>
+      <c r="BO31" s="69"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3869,73 +3899,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="56">
+      <c r="C32" s="66">
         <v>7</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
-      <c r="AA32" s="61"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="61"/>
-      <c r="AD32" s="61"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="59"/>
-      <c r="AV32" s="59"/>
-      <c r="AW32" s="59"/>
-      <c r="AX32" s="59"/>
-      <c r="AY32" s="59"/>
-      <c r="AZ32" s="59"/>
-      <c r="BA32" s="59"/>
-      <c r="BB32" s="59"/>
-      <c r="BC32" s="59"/>
-      <c r="BD32" s="59"/>
-      <c r="BE32" s="59"/>
-      <c r="BF32" s="59"/>
-      <c r="BG32" s="59"/>
-      <c r="BH32" s="59"/>
-      <c r="BI32" s="59"/>
-      <c r="BJ32" s="59"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
-      <c r="BN32" s="59"/>
-      <c r="BO32" s="59"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="69"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="69"/>
+      <c r="AO32" s="69"/>
+      <c r="AP32" s="69"/>
+      <c r="AQ32" s="69"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="69"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="69"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="69"/>
+      <c r="AZ32" s="69"/>
+      <c r="BA32" s="69"/>
+      <c r="BB32" s="69"/>
+      <c r="BC32" s="69"/>
+      <c r="BD32" s="69"/>
+      <c r="BE32" s="69"/>
+      <c r="BF32" s="69"/>
+      <c r="BG32" s="69"/>
+      <c r="BH32" s="69"/>
+      <c r="BI32" s="69"/>
+      <c r="BJ32" s="69"/>
+      <c r="BK32" s="69"/>
+      <c r="BL32" s="69"/>
+      <c r="BM32" s="69"/>
+      <c r="BN32" s="69"/>
+      <c r="BO32" s="69"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3952,73 +3982,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="56">
+      <c r="C33" s="66">
         <v>8</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="61"/>
-      <c r="AB33" s="61"/>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="59"/>
-      <c r="AT33" s="59"/>
-      <c r="AU33" s="59"/>
-      <c r="AV33" s="59"/>
-      <c r="AW33" s="59"/>
-      <c r="AX33" s="59"/>
-      <c r="AY33" s="59"/>
-      <c r="AZ33" s="59"/>
-      <c r="BA33" s="59"/>
-      <c r="BB33" s="59"/>
-      <c r="BC33" s="59"/>
-      <c r="BD33" s="59"/>
-      <c r="BE33" s="59"/>
-      <c r="BF33" s="59"/>
-      <c r="BG33" s="59"/>
-      <c r="BH33" s="59"/>
-      <c r="BI33" s="59"/>
-      <c r="BJ33" s="59"/>
-      <c r="BK33" s="59"/>
-      <c r="BL33" s="59"/>
-      <c r="BM33" s="59"/>
-      <c r="BN33" s="59"/>
-      <c r="BO33" s="59"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="69"/>
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="69"/>
+      <c r="AN33" s="69"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="69"/>
+      <c r="AQ33" s="69"/>
+      <c r="AR33" s="69"/>
+      <c r="AS33" s="69"/>
+      <c r="AT33" s="69"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="69"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="69"/>
+      <c r="AZ33" s="69"/>
+      <c r="BA33" s="69"/>
+      <c r="BB33" s="69"/>
+      <c r="BC33" s="69"/>
+      <c r="BD33" s="69"/>
+      <c r="BE33" s="69"/>
+      <c r="BF33" s="69"/>
+      <c r="BG33" s="69"/>
+      <c r="BH33" s="69"/>
+      <c r="BI33" s="69"/>
+      <c r="BJ33" s="69"/>
+      <c r="BK33" s="69"/>
+      <c r="BL33" s="69"/>
+      <c r="BM33" s="69"/>
+      <c r="BN33" s="69"/>
+      <c r="BO33" s="69"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -4035,73 +4065,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="56">
+      <c r="C34" s="66">
         <v>9</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="61"/>
-      <c r="AC34" s="61"/>
-      <c r="AD34" s="61"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="59"/>
-      <c r="AV34" s="59"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="59"/>
-      <c r="AY34" s="59"/>
-      <c r="AZ34" s="59"/>
-      <c r="BA34" s="59"/>
-      <c r="BB34" s="59"/>
-      <c r="BC34" s="59"/>
-      <c r="BD34" s="59"/>
-      <c r="BE34" s="59"/>
-      <c r="BF34" s="59"/>
-      <c r="BG34" s="59"/>
-      <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
-      <c r="BJ34" s="59"/>
-      <c r="BK34" s="59"/>
-      <c r="BL34" s="59"/>
-      <c r="BM34" s="59"/>
-      <c r="BN34" s="59"/>
-      <c r="BO34" s="59"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="69"/>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="69"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="69"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="69"/>
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="69"/>
+      <c r="AN34" s="69"/>
+      <c r="AO34" s="69"/>
+      <c r="AP34" s="69"/>
+      <c r="AQ34" s="69"/>
+      <c r="AR34" s="69"/>
+      <c r="AS34" s="69"/>
+      <c r="AT34" s="69"/>
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="69"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="69"/>
+      <c r="BA34" s="69"/>
+      <c r="BB34" s="69"/>
+      <c r="BC34" s="69"/>
+      <c r="BD34" s="69"/>
+      <c r="BE34" s="69"/>
+      <c r="BF34" s="69"/>
+      <c r="BG34" s="69"/>
+      <c r="BH34" s="69"/>
+      <c r="BI34" s="69"/>
+      <c r="BJ34" s="69"/>
+      <c r="BK34" s="69"/>
+      <c r="BL34" s="69"/>
+      <c r="BM34" s="69"/>
+      <c r="BN34" s="69"/>
+      <c r="BO34" s="69"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -4119,73 +4149,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="56">
+      <c r="C35" s="66">
         <v>10</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="61"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="59"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="59"/>
-      <c r="AK35" s="59"/>
-      <c r="AL35" s="59"/>
-      <c r="AM35" s="59"/>
-      <c r="AN35" s="59"/>
-      <c r="AO35" s="59"/>
-      <c r="AP35" s="59"/>
-      <c r="AQ35" s="59"/>
-      <c r="AR35" s="59"/>
-      <c r="AS35" s="59"/>
-      <c r="AT35" s="59"/>
-      <c r="AU35" s="59"/>
-      <c r="AV35" s="59"/>
-      <c r="AW35" s="59"/>
-      <c r="AX35" s="59"/>
-      <c r="AY35" s="59"/>
-      <c r="AZ35" s="59"/>
-      <c r="BA35" s="59"/>
-      <c r="BB35" s="59"/>
-      <c r="BC35" s="59"/>
-      <c r="BD35" s="59"/>
-      <c r="BE35" s="59"/>
-      <c r="BF35" s="59"/>
-      <c r="BG35" s="59"/>
-      <c r="BH35" s="59"/>
-      <c r="BI35" s="59"/>
-      <c r="BJ35" s="59"/>
-      <c r="BK35" s="59"/>
-      <c r="BL35" s="59"/>
-      <c r="BM35" s="59"/>
-      <c r="BN35" s="59"/>
-      <c r="BO35" s="59"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="69"/>
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="69"/>
+      <c r="AN35" s="69"/>
+      <c r="AO35" s="69"/>
+      <c r="AP35" s="69"/>
+      <c r="AQ35" s="69"/>
+      <c r="AR35" s="69"/>
+      <c r="AS35" s="69"/>
+      <c r="AT35" s="69"/>
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="69"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="69"/>
+      <c r="AY35" s="69"/>
+      <c r="AZ35" s="69"/>
+      <c r="BA35" s="69"/>
+      <c r="BB35" s="69"/>
+      <c r="BC35" s="69"/>
+      <c r="BD35" s="69"/>
+      <c r="BE35" s="69"/>
+      <c r="BF35" s="69"/>
+      <c r="BG35" s="69"/>
+      <c r="BH35" s="69"/>
+      <c r="BI35" s="69"/>
+      <c r="BJ35" s="69"/>
+      <c r="BK35" s="69"/>
+      <c r="BL35" s="69"/>
+      <c r="BM35" s="69"/>
+      <c r="BN35" s="69"/>
+      <c r="BO35" s="69"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4957,7 +4987,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EE767-5E26-4B91-8944-94CCE30922C7}">
-  <dimension ref="A1:AMK64"/>
+  <dimension ref="A1:AMK65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4975,239 +5005,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
-        <v>117</v>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101" t="s">
+        <v>110</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77" t="s">
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="78" t="s">
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="101"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="102"/>
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="102"/>
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="102"/>
+      <c r="BO1" s="102"/>
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="102"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="62" t="s">
-        <v>82</v>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="72" t="s">
+        <v>79</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="72" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72" t="s">
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="103"/>
+      <c r="BK2" s="103"/>
+      <c r="BL2" s="103"/>
+      <c r="BM2" s="103"/>
+      <c r="BN2" s="103"/>
+      <c r="BO2" s="103"/>
+      <c r="BP2" s="103"/>
+      <c r="BQ2" s="103"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="80" t="s">
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="80" t="s">
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104"/>
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="104"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
+      <c r="BC3" s="104"/>
+      <c r="BD3" s="104"/>
+      <c r="BE3" s="104"/>
+      <c r="BF3" s="104"/>
+      <c r="BG3" s="104"/>
+      <c r="BH3" s="104"/>
+      <c r="BI3" s="104"/>
+      <c r="BJ3" s="106"/>
+      <c r="BK3" s="106"/>
+      <c r="BL3" s="106"/>
+      <c r="BM3" s="106"/>
+      <c r="BN3" s="106"/>
+      <c r="BO3" s="106"/>
+      <c r="BP3" s="106"/>
+      <c r="BQ3" s="106"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -5232,98 +5262,98 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="75" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="59" t="s">
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59" t="s">
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="59"/>
-      <c r="BO6" s="59"/>
-      <c r="BP6" s="59"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="69"/>
+      <c r="BM6" s="69"/>
+      <c r="BN6" s="69"/>
+      <c r="BO6" s="69"/>
+      <c r="BP6" s="69"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -5352,34 +5382,34 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="59"/>
-      <c r="BA7" s="59"/>
-      <c r="BB7" s="59"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
-      <c r="BJ7" s="59"/>
-      <c r="BK7" s="59"/>
-      <c r="BL7" s="59"/>
-      <c r="BM7" s="59"/>
-      <c r="BN7" s="59"/>
-      <c r="BO7" s="59"/>
-      <c r="BP7" s="59"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="69"/>
+      <c r="BL7" s="69"/>
+      <c r="BM7" s="69"/>
+      <c r="BN7" s="69"/>
+      <c r="BO7" s="69"/>
+      <c r="BP7" s="69"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -5393,91 +5423,91 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="72" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72" t="s">
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="56" t="s">
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
-      <c r="AU10" s="56"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="56"/>
-      <c r="AY10" s="56"/>
-      <c r="AZ10" s="56"/>
-      <c r="BA10" s="56"/>
-      <c r="BB10" s="56"/>
-      <c r="BC10" s="56"/>
-      <c r="BD10" s="56"/>
-      <c r="BE10" s="56"/>
-      <c r="BF10" s="56"/>
-      <c r="BG10" s="56"/>
-      <c r="BH10" s="56"/>
-      <c r="BI10" s="56"/>
-      <c r="BJ10" s="56" t="s">
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="66"/>
+      <c r="BA10" s="66"/>
+      <c r="BB10" s="66"/>
+      <c r="BC10" s="66"/>
+      <c r="BD10" s="66"/>
+      <c r="BE10" s="66"/>
+      <c r="BF10" s="66"/>
+      <c r="BG10" s="66"/>
+      <c r="BH10" s="66"/>
+      <c r="BI10" s="66"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="56"/>
-      <c r="BL10" s="56"/>
-      <c r="BM10" s="56"/>
-      <c r="BN10" s="56"/>
-      <c r="BO10" s="56"/>
-      <c r="BP10" s="56"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5491,13 +5521,13 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="72" t="s">
+      <c r="T11" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -5547,162 +5577,159 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="73" t="s">
-        <v>53</v>
+      <c r="C12" s="87" t="s">
+        <v>114</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="13" t="s">
-        <v>83</v>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="59" t="s">
+        <v>113</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="72" t="s">
-        <v>44</v>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="25" t="s">
+        <v>109</v>
       </c>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="18"/>
-      <c r="BF12" s="18"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="18"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="22"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="23"/>
-      <c r="BO12" s="23"/>
-      <c r="BP12" s="24"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="53"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="96" t="s">
-        <v>113</v>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="60" t="s">
+        <v>117</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="101"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="25" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="56"/>
+      <c r="BK13" s="57"/>
+      <c r="BL13" s="57"/>
+      <c r="BM13" s="57"/>
+      <c r="BN13" s="57"/>
+      <c r="BO13" s="57"/>
+      <c r="BP13" s="58"/>
+    </row>
+    <row r="14" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="C14" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="26"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="26"/>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="28"/>
-      <c r="BJ13" s="86"/>
-      <c r="BK13" s="87"/>
-      <c r="BL13" s="87"/>
-      <c r="BM13" s="87"/>
-      <c r="BN13" s="87"/>
-      <c r="BO13" s="87"/>
-      <c r="BP13" s="88"/>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106" t="s">
-        <v>116</v>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -5716,10 +5743,12 @@
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
       <c r="S14" s="33"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="31"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="54" t="s">
+        <v>70</v>
+      </c>
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
@@ -5729,7 +5758,7 @@
       <c r="AD14" s="32"/>
       <c r="AE14" s="32"/>
       <c r="AF14" s="32"/>
-      <c r="AG14" s="92"/>
+      <c r="AG14" s="55"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
       <c r="AJ14" s="32"/>
@@ -5758,98 +5787,99 @@
       <c r="BG14" s="32"/>
       <c r="BH14" s="32"/>
       <c r="BI14" s="33"/>
-      <c r="BJ14" s="93"/>
-      <c r="BK14" s="94"/>
-      <c r="BL14" s="94"/>
-      <c r="BM14" s="94"/>
-      <c r="BN14" s="94"/>
-      <c r="BO14" s="94"/>
-      <c r="BP14" s="95"/>
+      <c r="BJ14" s="56"/>
+      <c r="BK14" s="57"/>
+      <c r="BL14" s="57"/>
+      <c r="BM14" s="57"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="57"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="15"/>
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="89" t="s">
-        <v>54</v>
+      <c r="C15" s="83" t="s">
+        <v>116</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="31" t="s">
-        <v>72</v>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="17" t="s">
+        <v>65</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="91" t="s">
-        <v>73</v>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="21" t="s">
+        <v>66</v>
       </c>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="32"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="93"/>
-      <c r="BK15" s="94"/>
-      <c r="BL15" s="94"/>
-      <c r="BM15" s="94"/>
-      <c r="BN15" s="94"/>
-      <c r="BO15" s="94"/>
-      <c r="BP15" s="95"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="18"/>
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="23"/>
+      <c r="BN15" s="23"/>
+      <c r="BO15" s="23"/>
+      <c r="BP15" s="24"/>
       <c r="BQ15" s="15"/>
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="73" t="s">
-        <v>55</v>
+      <c r="C16" s="84" t="s">
+        <v>53</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -5865,11 +5895,11 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
@@ -5920,15 +5950,13 @@
     </row>
     <row r="17" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="C17" s="73" t="s">
-        <v>70</v>
+      <c r="C17" s="83" t="s">
+        <v>68</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -5941,12 +5969,10 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="21" t="s">
-        <v>68</v>
-      </c>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="21"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -5996,250 +6022,251 @@
     </row>
     <row r="18" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="C18" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="18"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="20"/>
-      <c r="BJ18" s="22"/>
-      <c r="BK18" s="23"/>
-      <c r="BL18" s="23"/>
-      <c r="BM18" s="23"/>
-      <c r="BN18" s="23"/>
-      <c r="BO18" s="23"/>
-      <c r="BP18" s="24"/>
+      <c r="AG18" s="16"/>
       <c r="BQ18" s="15"/>
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
+      <c r="B19" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AG19" s="16"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="82" t="s">
+        <v>36</v>
       </c>
-      <c r="AG20" s="16"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="66"/>
+      <c r="BA20" s="66"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="66"/>
+      <c r="BJ20" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK20" s="66"/>
+      <c r="BL20" s="66"/>
+      <c r="BM20" s="66"/>
+      <c r="BN20" s="66"/>
+      <c r="BO20" s="66"/>
+      <c r="BP20" s="66"/>
       <c r="BQ20" s="15"/>
     </row>
     <row r="21" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="72" t="s">
-        <v>36</v>
+      <c r="C21" s="81" t="s">
+        <v>38</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72" t="s">
-        <v>37</v>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="17" t="s">
+        <v>73</v>
       </c>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="56" t="s">
-        <v>33</v>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="21" t="s">
+        <v>54</v>
       </c>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="56"/>
-      <c r="AT21" s="56"/>
-      <c r="AU21" s="56"/>
-      <c r="AV21" s="56"/>
-      <c r="AW21" s="56"/>
-      <c r="AX21" s="56"/>
-      <c r="AY21" s="56"/>
-      <c r="AZ21" s="56"/>
-      <c r="BA21" s="56"/>
-      <c r="BB21" s="56"/>
-      <c r="BC21" s="56"/>
-      <c r="BD21" s="56"/>
-      <c r="BE21" s="56"/>
-      <c r="BF21" s="56"/>
-      <c r="BG21" s="56"/>
-      <c r="BH21" s="56"/>
-      <c r="BI21" s="56"/>
-      <c r="BJ21" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="BK21" s="56"/>
-      <c r="BL21" s="56"/>
-      <c r="BM21" s="56"/>
-      <c r="BN21" s="56"/>
-      <c r="BO21" s="56"/>
-      <c r="BP21" s="56"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="23"/>
+      <c r="BL21" s="23"/>
+      <c r="BM21" s="23"/>
+      <c r="BN21" s="23"/>
+      <c r="BO21" s="23"/>
+      <c r="BP21" s="24"/>
       <c r="BQ21" s="15"/>
     </row>
     <row r="22" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="C22" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="18"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
-      <c r="AX22" s="18"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="18"/>
-      <c r="BF22" s="18"/>
-      <c r="BG22" s="18"/>
-      <c r="BH22" s="18"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="22"/>
-      <c r="BK22" s="23"/>
-      <c r="BL22" s="23"/>
-      <c r="BM22" s="23"/>
-      <c r="BN22" s="23"/>
-      <c r="BO22" s="23"/>
-      <c r="BP22" s="24"/>
+      <c r="AG22" s="16"/>
       <c r="BQ22" s="15"/>
     </row>
     <row r="23" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="AG23" s="16"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
       <c r="BQ23" s="15"/>
     </row>
     <row r="24" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -6310,152 +6337,89 @@
     </row>
     <row r="25" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
-      <c r="AW25"/>
-      <c r="AX25"/>
-      <c r="AY25"/>
-      <c r="AZ25"/>
-      <c r="BA25"/>
-      <c r="BB25"/>
-      <c r="BC25"/>
-      <c r="BD25"/>
-      <c r="BE25"/>
-      <c r="BF25"/>
-      <c r="BG25"/>
-      <c r="BH25"/>
-      <c r="BI25"/>
-      <c r="BJ25"/>
-      <c r="BK25"/>
-      <c r="BL25"/>
-      <c r="BM25"/>
-      <c r="BN25"/>
-      <c r="BO25"/>
-      <c r="BP25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="26"/>
+      <c r="BP25" s="28"/>
       <c r="BQ25" s="15"/>
     </row>
     <row r="26" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="26"/>
-      <c r="BD26" s="26"/>
-      <c r="BE26" s="26"/>
-      <c r="BF26" s="26"/>
-      <c r="BG26" s="26"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
-      <c r="BK26" s="26"/>
-      <c r="BL26" s="26"/>
-      <c r="BM26" s="26"/>
-      <c r="BN26" s="26"/>
-      <c r="BO26" s="26"/>
-      <c r="BP26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG26" s="16"/>
+      <c r="BP26" s="30"/>
       <c r="BQ26" s="15"/>
     </row>
     <row r="27" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="37" t="s">
-        <v>45</v>
+      <c r="D27" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="AG27" s="16"/>
       <c r="BP27" s="30"/>
@@ -6464,8 +6428,8 @@
     <row r="28" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="13" t="s">
-        <v>57</v>
+      <c r="I28" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="AG28" s="16"/>
       <c r="BP28" s="30"/>
@@ -6474,9 +6438,22 @@
     <row r="29" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="C29" s="29"/>
-      <c r="I29" s="13" t="s">
-        <v>84</v>
+      <c r="I29" s="38" t="s">
+        <v>59</v>
       </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
       <c r="AG29" s="16"/>
       <c r="BP29" s="30"/>
       <c r="BQ29" s="15"/>
@@ -6485,7 +6462,7 @@
       <c r="A30" s="12"/>
       <c r="C30" s="29"/>
       <c r="I30" s="38" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -6507,27 +6484,11 @@
     <row r="31" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="C31" s="29"/>
-      <c r="I31" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
       <c r="AG31" s="16"/>
       <c r="BP31" s="30"/>
       <c r="BQ31" s="15"/>
     </row>
-    <row r="32" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="AG32" s="16"/>
@@ -6569,19 +6530,57 @@
       <c r="BP37" s="30"/>
       <c r="BQ37" s="15"/>
     </row>
-    <row r="38" spans="1:1025" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="C38" s="29"/>
-      <c r="AG38" s="16"/>
+      <c r="D38" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
       <c r="BP38" s="30"/>
       <c r="BQ38" s="15"/>
     </row>
     <row r="39" spans="1:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="38" t="s">
-        <v>62</v>
-      </c>
+      <c r="D39" s="38"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -6631,7 +6630,9 @@
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+      <c r="I40" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
@@ -6651,18 +6652,17 @@
       <c r="Z40" s="38"/>
       <c r="AA40" s="38"/>
       <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
+      <c r="AC40" s="40"/>
       <c r="AD40" s="38"/>
       <c r="AE40" s="38"/>
       <c r="AF40" s="38"/>
-      <c r="AG40" s="39"/>
+      <c r="AG40" s="38"/>
       <c r="AH40" s="38"/>
       <c r="AI40" s="38"/>
       <c r="AJ40" s="38"/>
       <c r="AK40" s="38"/>
       <c r="AL40" s="38"/>
       <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
       <c r="AO40" s="38"/>
       <c r="AP40" s="38"/>
       <c r="BP40" s="30"/>
@@ -6671,67 +6671,73 @@
     <row r="41" spans="1:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="38"/>
-      <c r="AK41" s="38"/>
-      <c r="AL41" s="38"/>
-      <c r="AM41" s="38"/>
-      <c r="AO41" s="38"/>
-      <c r="AP41" s="38"/>
+      <c r="AG41" s="16"/>
       <c r="BP41" s="30"/>
       <c r="BQ41" s="15"/>
     </row>
     <row r="42" spans="1:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="C42" s="29"/>
-      <c r="AG42" s="16"/>
+      <c r="D42" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="38"/>
+      <c r="AS42" s="38"/>
+      <c r="AT42" s="38"/>
+      <c r="AU42" s="38"/>
       <c r="BP42" s="30"/>
       <c r="BQ42" s="15"/>
     </row>
     <row r="43" spans="1:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="D43" s="38"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+      <c r="I43" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="J43" s="38"/>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
@@ -6781,7 +6787,9 @@
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
-      <c r="I44" s="16"/>
+      <c r="I44" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="J44" s="38"/>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
@@ -6831,9 +6839,7 @@
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="I45" s="16"/>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
@@ -6884,7 +6890,7 @@
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
@@ -6927,17 +6933,16 @@
       <c r="BP46" s="30"/>
       <c r="BQ46" s="15"/>
     </row>
-    <row r="47" spans="1:1025" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1025" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
       <c r="C47" s="29"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
-      <c r="H47" s="13"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
@@ -6977,1032 +6982,59 @@
       <c r="AS47" s="38"/>
       <c r="AT47" s="38"/>
       <c r="AU47" s="38"/>
-      <c r="AV47" s="13"/>
-      <c r="AW47" s="13"/>
-      <c r="AX47" s="13"/>
-      <c r="AY47" s="13"/>
-      <c r="AZ47" s="13"/>
-      <c r="BA47" s="13"/>
-      <c r="BB47" s="13"/>
-      <c r="BC47" s="13"/>
-      <c r="BD47" s="13"/>
-      <c r="BE47" s="13"/>
-      <c r="BF47" s="13"/>
-      <c r="BG47" s="13"/>
-      <c r="BH47" s="13"/>
-      <c r="BI47" s="13"/>
-      <c r="BJ47" s="13"/>
-      <c r="BK47" s="13"/>
-      <c r="BL47" s="13"/>
-      <c r="BM47" s="13"/>
-      <c r="BN47" s="13"/>
-      <c r="BO47" s="13"/>
       <c r="BP47" s="30"/>
-      <c r="BR47" s="13"/>
-      <c r="BS47" s="13"/>
-      <c r="BT47" s="13"/>
-      <c r="BU47" s="13"/>
-      <c r="BV47" s="13"/>
-      <c r="BW47" s="13"/>
-      <c r="BX47" s="13"/>
-      <c r="BY47" s="13"/>
-      <c r="BZ47" s="13"/>
-      <c r="CA47" s="13"/>
-      <c r="CB47" s="13"/>
-      <c r="CC47" s="13"/>
-      <c r="CD47" s="13"/>
-      <c r="CE47" s="13"/>
-      <c r="CF47" s="13"/>
-      <c r="CG47" s="13"/>
-      <c r="CH47" s="13"/>
-      <c r="CI47" s="13"/>
-      <c r="CJ47" s="13"/>
-      <c r="CK47" s="13"/>
-      <c r="CL47" s="13"/>
-      <c r="CM47" s="13"/>
-      <c r="CN47" s="13"/>
-      <c r="CO47" s="13"/>
-      <c r="CP47" s="13"/>
-      <c r="CQ47" s="13"/>
-      <c r="CR47" s="13"/>
-      <c r="CS47" s="13"/>
-      <c r="CT47" s="13"/>
-      <c r="CU47" s="13"/>
-      <c r="CV47" s="13"/>
-      <c r="CW47" s="13"/>
-      <c r="CX47" s="13"/>
-      <c r="CY47" s="13"/>
-      <c r="CZ47" s="13"/>
-      <c r="DA47" s="13"/>
-      <c r="DB47" s="13"/>
-      <c r="DC47" s="13"/>
-      <c r="DD47" s="13"/>
-      <c r="DE47" s="13"/>
-      <c r="DF47" s="13"/>
-      <c r="DG47" s="13"/>
-      <c r="DH47" s="13"/>
-      <c r="DI47" s="13"/>
-      <c r="DJ47" s="13"/>
-      <c r="DK47" s="13"/>
-      <c r="DL47" s="13"/>
-      <c r="DM47" s="13"/>
-      <c r="DN47" s="13"/>
-      <c r="DO47" s="13"/>
-      <c r="DP47" s="13"/>
-      <c r="DQ47" s="13"/>
-      <c r="DR47" s="13"/>
-      <c r="DS47" s="13"/>
-      <c r="DT47" s="13"/>
-      <c r="DU47" s="13"/>
-      <c r="DV47" s="13"/>
-      <c r="DW47" s="13"/>
-      <c r="DX47" s="13"/>
-      <c r="DY47" s="13"/>
-      <c r="DZ47" s="13"/>
-      <c r="EA47" s="13"/>
-      <c r="EB47" s="13"/>
-      <c r="EC47" s="13"/>
-      <c r="ED47" s="13"/>
-      <c r="EE47" s="13"/>
-      <c r="EF47" s="13"/>
-      <c r="EG47" s="13"/>
-      <c r="EH47" s="13"/>
-      <c r="EI47" s="13"/>
-      <c r="EJ47" s="13"/>
-      <c r="EK47" s="13"/>
-      <c r="EL47" s="13"/>
-      <c r="EM47" s="13"/>
-      <c r="EN47" s="13"/>
-      <c r="EO47" s="13"/>
-      <c r="EP47" s="13"/>
-      <c r="EQ47" s="13"/>
-      <c r="ER47" s="13"/>
-      <c r="ES47" s="13"/>
-      <c r="ET47" s="13"/>
-      <c r="EU47" s="13"/>
-      <c r="EV47" s="13"/>
-      <c r="EW47" s="13"/>
-      <c r="EX47" s="13"/>
-      <c r="EY47" s="13"/>
-      <c r="EZ47" s="13"/>
-      <c r="FA47" s="13"/>
-      <c r="FB47" s="13"/>
-      <c r="FC47" s="13"/>
-      <c r="FD47" s="13"/>
-      <c r="FE47" s="13"/>
-      <c r="FF47" s="13"/>
-      <c r="FG47" s="13"/>
-      <c r="FH47" s="13"/>
-      <c r="FI47" s="13"/>
-      <c r="FJ47" s="13"/>
-      <c r="FK47" s="13"/>
-      <c r="FL47" s="13"/>
-      <c r="FM47" s="13"/>
-      <c r="FN47" s="13"/>
-      <c r="FO47" s="13"/>
-      <c r="FP47" s="13"/>
-      <c r="FQ47" s="13"/>
-      <c r="FR47" s="13"/>
-      <c r="FS47" s="13"/>
-      <c r="FT47" s="13"/>
-      <c r="FU47" s="13"/>
-      <c r="FV47" s="13"/>
-      <c r="FW47" s="13"/>
-      <c r="FX47" s="13"/>
-      <c r="FY47" s="13"/>
-      <c r="FZ47" s="13"/>
-      <c r="GA47" s="13"/>
-      <c r="GB47" s="13"/>
-      <c r="GC47" s="13"/>
-      <c r="GD47" s="13"/>
-      <c r="GE47" s="13"/>
-      <c r="GF47" s="13"/>
-      <c r="GG47" s="13"/>
-      <c r="GH47" s="13"/>
-      <c r="GI47" s="13"/>
-      <c r="GJ47" s="13"/>
-      <c r="GK47" s="13"/>
-      <c r="GL47" s="13"/>
-      <c r="GM47" s="13"/>
-      <c r="GN47" s="13"/>
-      <c r="GO47" s="13"/>
-      <c r="GP47" s="13"/>
-      <c r="GQ47" s="13"/>
-      <c r="GR47" s="13"/>
-      <c r="GS47" s="13"/>
-      <c r="GT47" s="13"/>
-      <c r="GU47" s="13"/>
-      <c r="GV47" s="13"/>
-      <c r="GW47" s="13"/>
-      <c r="GX47" s="13"/>
-      <c r="GY47" s="13"/>
-      <c r="GZ47" s="13"/>
-      <c r="HA47" s="13"/>
-      <c r="HB47" s="13"/>
-      <c r="HC47" s="13"/>
-      <c r="HD47" s="13"/>
-      <c r="HE47" s="13"/>
-      <c r="HF47" s="13"/>
-      <c r="HG47" s="13"/>
-      <c r="HH47" s="13"/>
-      <c r="HI47" s="13"/>
-      <c r="HJ47" s="13"/>
-      <c r="HK47" s="13"/>
-      <c r="HL47" s="13"/>
-      <c r="HM47" s="13"/>
-      <c r="HN47" s="13"/>
-      <c r="HO47" s="13"/>
-      <c r="HP47" s="13"/>
-      <c r="HQ47" s="13"/>
-      <c r="HR47" s="13"/>
-      <c r="HS47" s="13"/>
-      <c r="HT47" s="13"/>
-      <c r="HU47" s="13"/>
-      <c r="HV47" s="13"/>
-      <c r="HW47" s="13"/>
-      <c r="HX47" s="13"/>
-      <c r="HY47" s="13"/>
-      <c r="HZ47" s="13"/>
-      <c r="IA47" s="13"/>
-      <c r="IB47" s="13"/>
-      <c r="IC47" s="13"/>
-      <c r="ID47" s="13"/>
-      <c r="IE47" s="13"/>
-      <c r="IF47" s="13"/>
-      <c r="IG47" s="13"/>
-      <c r="IH47" s="13"/>
-      <c r="II47" s="13"/>
-      <c r="IJ47" s="13"/>
-      <c r="IK47" s="13"/>
-      <c r="IL47" s="13"/>
-      <c r="IM47" s="13"/>
-      <c r="IN47" s="13"/>
-      <c r="IO47" s="13"/>
-      <c r="IP47" s="13"/>
-      <c r="IQ47" s="13"/>
-      <c r="IR47" s="13"/>
-      <c r="IS47" s="13"/>
-      <c r="IT47" s="13"/>
-      <c r="IU47" s="13"/>
-      <c r="IV47" s="13"/>
-      <c r="IW47" s="13"/>
-      <c r="IX47" s="13"/>
-      <c r="IY47" s="13"/>
-      <c r="IZ47" s="13"/>
-      <c r="JA47" s="13"/>
-      <c r="JB47" s="13"/>
-      <c r="JC47" s="13"/>
-      <c r="JD47" s="13"/>
-      <c r="JE47" s="13"/>
-      <c r="JF47" s="13"/>
-      <c r="JG47" s="13"/>
-      <c r="JH47" s="13"/>
-      <c r="JI47" s="13"/>
-      <c r="JJ47" s="13"/>
-      <c r="JK47" s="13"/>
-      <c r="JL47" s="13"/>
-      <c r="JM47" s="13"/>
-      <c r="JN47" s="13"/>
-      <c r="JO47" s="13"/>
-      <c r="JP47" s="13"/>
-      <c r="JQ47" s="13"/>
-      <c r="JR47" s="13"/>
-      <c r="JS47" s="13"/>
-      <c r="JT47" s="13"/>
-      <c r="JU47" s="13"/>
-      <c r="JV47" s="13"/>
-      <c r="JW47" s="13"/>
-      <c r="JX47" s="13"/>
-      <c r="JY47" s="13"/>
-      <c r="JZ47" s="13"/>
-      <c r="KA47" s="13"/>
-      <c r="KB47" s="13"/>
-      <c r="KC47" s="13"/>
-      <c r="KD47" s="13"/>
-      <c r="KE47" s="13"/>
-      <c r="KF47" s="13"/>
-      <c r="KG47" s="13"/>
-      <c r="KH47" s="13"/>
-      <c r="KI47" s="13"/>
-      <c r="KJ47" s="13"/>
-      <c r="KK47" s="13"/>
-      <c r="KL47" s="13"/>
-      <c r="KM47" s="13"/>
-      <c r="KN47" s="13"/>
-      <c r="KO47" s="13"/>
-      <c r="KP47" s="13"/>
-      <c r="KQ47" s="13"/>
-      <c r="KR47" s="13"/>
-      <c r="KS47" s="13"/>
-      <c r="KT47" s="13"/>
-      <c r="KU47" s="13"/>
-      <c r="KV47" s="13"/>
-      <c r="KW47" s="13"/>
-      <c r="KX47" s="13"/>
-      <c r="KY47" s="13"/>
-      <c r="KZ47" s="13"/>
-      <c r="LA47" s="13"/>
-      <c r="LB47" s="13"/>
-      <c r="LC47" s="13"/>
-      <c r="LD47" s="13"/>
-      <c r="LE47" s="13"/>
-      <c r="LF47" s="13"/>
-      <c r="LG47" s="13"/>
-      <c r="LH47" s="13"/>
-      <c r="LI47" s="13"/>
-      <c r="LJ47" s="13"/>
-      <c r="LK47" s="13"/>
-      <c r="LL47" s="13"/>
-      <c r="LM47" s="13"/>
-      <c r="LN47" s="13"/>
-      <c r="LO47" s="13"/>
-      <c r="LP47" s="13"/>
-      <c r="LQ47" s="13"/>
-      <c r="LR47" s="13"/>
-      <c r="LS47" s="13"/>
-      <c r="LT47" s="13"/>
-      <c r="LU47" s="13"/>
-      <c r="LV47" s="13"/>
-      <c r="LW47" s="13"/>
-      <c r="LX47" s="13"/>
-      <c r="LY47" s="13"/>
-      <c r="LZ47" s="13"/>
-      <c r="MA47" s="13"/>
-      <c r="MB47" s="13"/>
-      <c r="MC47" s="13"/>
-      <c r="MD47" s="13"/>
-      <c r="ME47" s="13"/>
-      <c r="MF47" s="13"/>
-      <c r="MG47" s="13"/>
-      <c r="MH47" s="13"/>
-      <c r="MI47" s="13"/>
-      <c r="MJ47" s="13"/>
-      <c r="MK47" s="13"/>
-      <c r="ML47" s="13"/>
-      <c r="MM47" s="13"/>
-      <c r="MN47" s="13"/>
-      <c r="MO47" s="13"/>
-      <c r="MP47" s="13"/>
-      <c r="MQ47" s="13"/>
-      <c r="MR47" s="13"/>
-      <c r="MS47" s="13"/>
-      <c r="MT47" s="13"/>
-      <c r="MU47" s="13"/>
-      <c r="MV47" s="13"/>
-      <c r="MW47" s="13"/>
-      <c r="MX47" s="13"/>
-      <c r="MY47" s="13"/>
-      <c r="MZ47" s="13"/>
-      <c r="NA47" s="13"/>
-      <c r="NB47" s="13"/>
-      <c r="NC47" s="13"/>
-      <c r="ND47" s="13"/>
-      <c r="NE47" s="13"/>
-      <c r="NF47" s="13"/>
-      <c r="NG47" s="13"/>
-      <c r="NH47" s="13"/>
-      <c r="NI47" s="13"/>
-      <c r="NJ47" s="13"/>
-      <c r="NK47" s="13"/>
-      <c r="NL47" s="13"/>
-      <c r="NM47" s="13"/>
-      <c r="NN47" s="13"/>
-      <c r="NO47" s="13"/>
-      <c r="NP47" s="13"/>
-      <c r="NQ47" s="13"/>
-      <c r="NR47" s="13"/>
-      <c r="NS47" s="13"/>
-      <c r="NT47" s="13"/>
-      <c r="NU47" s="13"/>
-      <c r="NV47" s="13"/>
-      <c r="NW47" s="13"/>
-      <c r="NX47" s="13"/>
-      <c r="NY47" s="13"/>
-      <c r="NZ47" s="13"/>
-      <c r="OA47" s="13"/>
-      <c r="OB47" s="13"/>
-      <c r="OC47" s="13"/>
-      <c r="OD47" s="13"/>
-      <c r="OE47" s="13"/>
-      <c r="OF47" s="13"/>
-      <c r="OG47" s="13"/>
-      <c r="OH47" s="13"/>
-      <c r="OI47" s="13"/>
-      <c r="OJ47" s="13"/>
-      <c r="OK47" s="13"/>
-      <c r="OL47" s="13"/>
-      <c r="OM47" s="13"/>
-      <c r="ON47" s="13"/>
-      <c r="OO47" s="13"/>
-      <c r="OP47" s="13"/>
-      <c r="OQ47" s="13"/>
-      <c r="OR47" s="13"/>
-      <c r="OS47" s="13"/>
-      <c r="OT47" s="13"/>
-      <c r="OU47" s="13"/>
-      <c r="OV47" s="13"/>
-      <c r="OW47" s="13"/>
-      <c r="OX47" s="13"/>
-      <c r="OY47" s="13"/>
-      <c r="OZ47" s="13"/>
-      <c r="PA47" s="13"/>
-      <c r="PB47" s="13"/>
-      <c r="PC47" s="13"/>
-      <c r="PD47" s="13"/>
-      <c r="PE47" s="13"/>
-      <c r="PF47" s="13"/>
-      <c r="PG47" s="13"/>
-      <c r="PH47" s="13"/>
-      <c r="PI47" s="13"/>
-      <c r="PJ47" s="13"/>
-      <c r="PK47" s="13"/>
-      <c r="PL47" s="13"/>
-      <c r="PM47" s="13"/>
-      <c r="PN47" s="13"/>
-      <c r="PO47" s="13"/>
-      <c r="PP47" s="13"/>
-      <c r="PQ47" s="13"/>
-      <c r="PR47" s="13"/>
-      <c r="PS47" s="13"/>
-      <c r="PT47" s="13"/>
-      <c r="PU47" s="13"/>
-      <c r="PV47" s="13"/>
-      <c r="PW47" s="13"/>
-      <c r="PX47" s="13"/>
-      <c r="PY47" s="13"/>
-      <c r="PZ47" s="13"/>
-      <c r="QA47" s="13"/>
-      <c r="QB47" s="13"/>
-      <c r="QC47" s="13"/>
-      <c r="QD47" s="13"/>
-      <c r="QE47" s="13"/>
-      <c r="QF47" s="13"/>
-      <c r="QG47" s="13"/>
-      <c r="QH47" s="13"/>
-      <c r="QI47" s="13"/>
-      <c r="QJ47" s="13"/>
-      <c r="QK47" s="13"/>
-      <c r="QL47" s="13"/>
-      <c r="QM47" s="13"/>
-      <c r="QN47" s="13"/>
-      <c r="QO47" s="13"/>
-      <c r="QP47" s="13"/>
-      <c r="QQ47" s="13"/>
-      <c r="QR47" s="13"/>
-      <c r="QS47" s="13"/>
-      <c r="QT47" s="13"/>
-      <c r="QU47" s="13"/>
-      <c r="QV47" s="13"/>
-      <c r="QW47" s="13"/>
-      <c r="QX47" s="13"/>
-      <c r="QY47" s="13"/>
-      <c r="QZ47" s="13"/>
-      <c r="RA47" s="13"/>
-      <c r="RB47" s="13"/>
-      <c r="RC47" s="13"/>
-      <c r="RD47" s="13"/>
-      <c r="RE47" s="13"/>
-      <c r="RF47" s="13"/>
-      <c r="RG47" s="13"/>
-      <c r="RH47" s="13"/>
-      <c r="RI47" s="13"/>
-      <c r="RJ47" s="13"/>
-      <c r="RK47" s="13"/>
-      <c r="RL47" s="13"/>
-      <c r="RM47" s="13"/>
-      <c r="RN47" s="13"/>
-      <c r="RO47" s="13"/>
-      <c r="RP47" s="13"/>
-      <c r="RQ47" s="13"/>
-      <c r="RR47" s="13"/>
-      <c r="RS47" s="13"/>
-      <c r="RT47" s="13"/>
-      <c r="RU47" s="13"/>
-      <c r="RV47" s="13"/>
-      <c r="RW47" s="13"/>
-      <c r="RX47" s="13"/>
-      <c r="RY47" s="13"/>
-      <c r="RZ47" s="13"/>
-      <c r="SA47" s="13"/>
-      <c r="SB47" s="13"/>
-      <c r="SC47" s="13"/>
-      <c r="SD47" s="13"/>
-      <c r="SE47" s="13"/>
-      <c r="SF47" s="13"/>
-      <c r="SG47" s="13"/>
-      <c r="SH47" s="13"/>
-      <c r="SI47" s="13"/>
-      <c r="SJ47" s="13"/>
-      <c r="SK47" s="13"/>
-      <c r="SL47" s="13"/>
-      <c r="SM47" s="13"/>
-      <c r="SN47" s="13"/>
-      <c r="SO47" s="13"/>
-      <c r="SP47" s="13"/>
-      <c r="SQ47" s="13"/>
-      <c r="SR47" s="13"/>
-      <c r="SS47" s="13"/>
-      <c r="ST47" s="13"/>
-      <c r="SU47" s="13"/>
-      <c r="SV47" s="13"/>
-      <c r="SW47" s="13"/>
-      <c r="SX47" s="13"/>
-      <c r="SY47" s="13"/>
-      <c r="SZ47" s="13"/>
-      <c r="TA47" s="13"/>
-      <c r="TB47" s="13"/>
-      <c r="TC47" s="13"/>
-      <c r="TD47" s="13"/>
-      <c r="TE47" s="13"/>
-      <c r="TF47" s="13"/>
-      <c r="TG47" s="13"/>
-      <c r="TH47" s="13"/>
-      <c r="TI47" s="13"/>
-      <c r="TJ47" s="13"/>
-      <c r="TK47" s="13"/>
-      <c r="TL47" s="13"/>
-      <c r="TM47" s="13"/>
-      <c r="TN47" s="13"/>
-      <c r="TO47" s="13"/>
-      <c r="TP47" s="13"/>
-      <c r="TQ47" s="13"/>
-      <c r="TR47" s="13"/>
-      <c r="TS47" s="13"/>
-      <c r="TT47" s="13"/>
-      <c r="TU47" s="13"/>
-      <c r="TV47" s="13"/>
-      <c r="TW47" s="13"/>
-      <c r="TX47" s="13"/>
-      <c r="TY47" s="13"/>
-      <c r="TZ47" s="13"/>
-      <c r="UA47" s="13"/>
-      <c r="UB47" s="13"/>
-      <c r="UC47" s="13"/>
-      <c r="UD47" s="13"/>
-      <c r="UE47" s="13"/>
-      <c r="UF47" s="13"/>
-      <c r="UG47" s="13"/>
-      <c r="UH47" s="13"/>
-      <c r="UI47" s="13"/>
-      <c r="UJ47" s="13"/>
-      <c r="UK47" s="13"/>
-      <c r="UL47" s="13"/>
-      <c r="UM47" s="13"/>
-      <c r="UN47" s="13"/>
-      <c r="UO47" s="13"/>
-      <c r="UP47" s="13"/>
-      <c r="UQ47" s="13"/>
-      <c r="UR47" s="13"/>
-      <c r="US47" s="13"/>
-      <c r="UT47" s="13"/>
-      <c r="UU47" s="13"/>
-      <c r="UV47" s="13"/>
-      <c r="UW47" s="13"/>
-      <c r="UX47" s="13"/>
-      <c r="UY47" s="13"/>
-      <c r="UZ47" s="13"/>
-      <c r="VA47" s="13"/>
-      <c r="VB47" s="13"/>
-      <c r="VC47" s="13"/>
-      <c r="VD47" s="13"/>
-      <c r="VE47" s="13"/>
-      <c r="VF47" s="13"/>
-      <c r="VG47" s="13"/>
-      <c r="VH47" s="13"/>
-      <c r="VI47" s="13"/>
-      <c r="VJ47" s="13"/>
-      <c r="VK47" s="13"/>
-      <c r="VL47" s="13"/>
-      <c r="VM47" s="13"/>
-      <c r="VN47" s="13"/>
-      <c r="VO47" s="13"/>
-      <c r="VP47" s="13"/>
-      <c r="VQ47" s="13"/>
-      <c r="VR47" s="13"/>
-      <c r="VS47" s="13"/>
-      <c r="VT47" s="13"/>
-      <c r="VU47" s="13"/>
-      <c r="VV47" s="13"/>
-      <c r="VW47" s="13"/>
-      <c r="VX47" s="13"/>
-      <c r="VY47" s="13"/>
-      <c r="VZ47" s="13"/>
-      <c r="WA47" s="13"/>
-      <c r="WB47" s="13"/>
-      <c r="WC47" s="13"/>
-      <c r="WD47" s="13"/>
-      <c r="WE47" s="13"/>
-      <c r="WF47" s="13"/>
-      <c r="WG47" s="13"/>
-      <c r="WH47" s="13"/>
-      <c r="WI47" s="13"/>
-      <c r="WJ47" s="13"/>
-      <c r="WK47" s="13"/>
-      <c r="WL47" s="13"/>
-      <c r="WM47" s="13"/>
-      <c r="WN47" s="13"/>
-      <c r="WO47" s="13"/>
-      <c r="WP47" s="13"/>
-      <c r="WQ47" s="13"/>
-      <c r="WR47" s="13"/>
-      <c r="WS47" s="13"/>
-      <c r="WT47" s="13"/>
-      <c r="WU47" s="13"/>
-      <c r="WV47" s="13"/>
-      <c r="WW47" s="13"/>
-      <c r="WX47" s="13"/>
-      <c r="WY47" s="13"/>
-      <c r="WZ47" s="13"/>
-      <c r="XA47" s="13"/>
-      <c r="XB47" s="13"/>
-      <c r="XC47" s="13"/>
-      <c r="XD47" s="13"/>
-      <c r="XE47" s="13"/>
-      <c r="XF47" s="13"/>
-      <c r="XG47" s="13"/>
-      <c r="XH47" s="13"/>
-      <c r="XI47" s="13"/>
-      <c r="XJ47" s="13"/>
-      <c r="XK47" s="13"/>
-      <c r="XL47" s="13"/>
-      <c r="XM47" s="13"/>
-      <c r="XN47" s="13"/>
-      <c r="XO47" s="13"/>
-      <c r="XP47" s="13"/>
-      <c r="XQ47" s="13"/>
-      <c r="XR47" s="13"/>
-      <c r="XS47" s="13"/>
-      <c r="XT47" s="13"/>
-      <c r="XU47" s="13"/>
-      <c r="XV47" s="13"/>
-      <c r="XW47" s="13"/>
-      <c r="XX47" s="13"/>
-      <c r="XY47" s="13"/>
-      <c r="XZ47" s="13"/>
-      <c r="YA47" s="13"/>
-      <c r="YB47" s="13"/>
-      <c r="YC47" s="13"/>
-      <c r="YD47" s="13"/>
-      <c r="YE47" s="13"/>
-      <c r="YF47" s="13"/>
-      <c r="YG47" s="13"/>
-      <c r="YH47" s="13"/>
-      <c r="YI47" s="13"/>
-      <c r="YJ47" s="13"/>
-      <c r="YK47" s="13"/>
-      <c r="YL47" s="13"/>
-      <c r="YM47" s="13"/>
-      <c r="YN47" s="13"/>
-      <c r="YO47" s="13"/>
-      <c r="YP47" s="13"/>
-      <c r="YQ47" s="13"/>
-      <c r="YR47" s="13"/>
-      <c r="YS47" s="13"/>
-      <c r="YT47" s="13"/>
-      <c r="YU47" s="13"/>
-      <c r="YV47" s="13"/>
-      <c r="YW47" s="13"/>
-      <c r="YX47" s="13"/>
-      <c r="YY47" s="13"/>
-      <c r="YZ47" s="13"/>
-      <c r="ZA47" s="13"/>
-      <c r="ZB47" s="13"/>
-      <c r="ZC47" s="13"/>
-      <c r="ZD47" s="13"/>
-      <c r="ZE47" s="13"/>
-      <c r="ZF47" s="13"/>
-      <c r="ZG47" s="13"/>
-      <c r="ZH47" s="13"/>
-      <c r="ZI47" s="13"/>
-      <c r="ZJ47" s="13"/>
-      <c r="ZK47" s="13"/>
-      <c r="ZL47" s="13"/>
-      <c r="ZM47" s="13"/>
-      <c r="ZN47" s="13"/>
-      <c r="ZO47" s="13"/>
-      <c r="ZP47" s="13"/>
-      <c r="ZQ47" s="13"/>
-      <c r="ZR47" s="13"/>
-      <c r="ZS47" s="13"/>
-      <c r="ZT47" s="13"/>
-      <c r="ZU47" s="13"/>
-      <c r="ZV47" s="13"/>
-      <c r="ZW47" s="13"/>
-      <c r="ZX47" s="13"/>
-      <c r="ZY47" s="13"/>
-      <c r="ZZ47" s="13"/>
-      <c r="AAA47" s="13"/>
-      <c r="AAB47" s="13"/>
-      <c r="AAC47" s="13"/>
-      <c r="AAD47" s="13"/>
-      <c r="AAE47" s="13"/>
-      <c r="AAF47" s="13"/>
-      <c r="AAG47" s="13"/>
-      <c r="AAH47" s="13"/>
-      <c r="AAI47" s="13"/>
-      <c r="AAJ47" s="13"/>
-      <c r="AAK47" s="13"/>
-      <c r="AAL47" s="13"/>
-      <c r="AAM47" s="13"/>
-      <c r="AAN47" s="13"/>
-      <c r="AAO47" s="13"/>
-      <c r="AAP47" s="13"/>
-      <c r="AAQ47" s="13"/>
-      <c r="AAR47" s="13"/>
-      <c r="AAS47" s="13"/>
-      <c r="AAT47" s="13"/>
-      <c r="AAU47" s="13"/>
-      <c r="AAV47" s="13"/>
-      <c r="AAW47" s="13"/>
-      <c r="AAX47" s="13"/>
-      <c r="AAY47" s="13"/>
-      <c r="AAZ47" s="13"/>
-      <c r="ABA47" s="13"/>
-      <c r="ABB47" s="13"/>
-      <c r="ABC47" s="13"/>
-      <c r="ABD47" s="13"/>
-      <c r="ABE47" s="13"/>
-      <c r="ABF47" s="13"/>
-      <c r="ABG47" s="13"/>
-      <c r="ABH47" s="13"/>
-      <c r="ABI47" s="13"/>
-      <c r="ABJ47" s="13"/>
-      <c r="ABK47" s="13"/>
-      <c r="ABL47" s="13"/>
-      <c r="ABM47" s="13"/>
-      <c r="ABN47" s="13"/>
-      <c r="ABO47" s="13"/>
-      <c r="ABP47" s="13"/>
-      <c r="ABQ47" s="13"/>
-      <c r="ABR47" s="13"/>
-      <c r="ABS47" s="13"/>
-      <c r="ABT47" s="13"/>
-      <c r="ABU47" s="13"/>
-      <c r="ABV47" s="13"/>
-      <c r="ABW47" s="13"/>
-      <c r="ABX47" s="13"/>
-      <c r="ABY47" s="13"/>
-      <c r="ABZ47" s="13"/>
-      <c r="ACA47" s="13"/>
-      <c r="ACB47" s="13"/>
-      <c r="ACC47" s="13"/>
-      <c r="ACD47" s="13"/>
-      <c r="ACE47" s="13"/>
-      <c r="ACF47" s="13"/>
-      <c r="ACG47" s="13"/>
-      <c r="ACH47" s="13"/>
-      <c r="ACI47" s="13"/>
-      <c r="ACJ47" s="13"/>
-      <c r="ACK47" s="13"/>
-      <c r="ACL47" s="13"/>
-      <c r="ACM47" s="13"/>
-      <c r="ACN47" s="13"/>
-      <c r="ACO47" s="13"/>
-      <c r="ACP47" s="13"/>
-      <c r="ACQ47" s="13"/>
-      <c r="ACR47" s="13"/>
-      <c r="ACS47" s="13"/>
-      <c r="ACT47" s="13"/>
-      <c r="ACU47" s="13"/>
-      <c r="ACV47" s="13"/>
-      <c r="ACW47" s="13"/>
-      <c r="ACX47" s="13"/>
-      <c r="ACY47" s="13"/>
-      <c r="ACZ47" s="13"/>
-      <c r="ADA47" s="13"/>
-      <c r="ADB47" s="13"/>
-      <c r="ADC47" s="13"/>
-      <c r="ADD47" s="13"/>
-      <c r="ADE47" s="13"/>
-      <c r="ADF47" s="13"/>
-      <c r="ADG47" s="13"/>
-      <c r="ADH47" s="13"/>
-      <c r="ADI47" s="13"/>
-      <c r="ADJ47" s="13"/>
-      <c r="ADK47" s="13"/>
-      <c r="ADL47" s="13"/>
-      <c r="ADM47" s="13"/>
-      <c r="ADN47" s="13"/>
-      <c r="ADO47" s="13"/>
-      <c r="ADP47" s="13"/>
-      <c r="ADQ47" s="13"/>
-      <c r="ADR47" s="13"/>
-      <c r="ADS47" s="13"/>
-      <c r="ADT47" s="13"/>
-      <c r="ADU47" s="13"/>
-      <c r="ADV47" s="13"/>
-      <c r="ADW47" s="13"/>
-      <c r="ADX47" s="13"/>
-      <c r="ADY47" s="13"/>
-      <c r="ADZ47" s="13"/>
-      <c r="AEA47" s="13"/>
-      <c r="AEB47" s="13"/>
-      <c r="AEC47" s="13"/>
-      <c r="AED47" s="13"/>
-      <c r="AEE47" s="13"/>
-      <c r="AEF47" s="13"/>
-      <c r="AEG47" s="13"/>
-      <c r="AEH47" s="13"/>
-      <c r="AEI47" s="13"/>
-      <c r="AEJ47" s="13"/>
-      <c r="AEK47" s="13"/>
-      <c r="AEL47" s="13"/>
-      <c r="AEM47" s="13"/>
-      <c r="AEN47" s="13"/>
-      <c r="AEO47" s="13"/>
-      <c r="AEP47" s="13"/>
-      <c r="AEQ47" s="13"/>
-      <c r="AER47" s="13"/>
-      <c r="AES47" s="13"/>
-      <c r="AET47" s="13"/>
-      <c r="AEU47" s="13"/>
-      <c r="AEV47" s="13"/>
-      <c r="AEW47" s="13"/>
-      <c r="AEX47" s="13"/>
-      <c r="AEY47" s="13"/>
-      <c r="AEZ47" s="13"/>
-      <c r="AFA47" s="13"/>
-      <c r="AFB47" s="13"/>
-      <c r="AFC47" s="13"/>
-      <c r="AFD47" s="13"/>
-      <c r="AFE47" s="13"/>
-      <c r="AFF47" s="13"/>
-      <c r="AFG47" s="13"/>
-      <c r="AFH47" s="13"/>
-      <c r="AFI47" s="13"/>
-      <c r="AFJ47" s="13"/>
-      <c r="AFK47" s="13"/>
-      <c r="AFL47" s="13"/>
-      <c r="AFM47" s="13"/>
-      <c r="AFN47" s="13"/>
-      <c r="AFO47" s="13"/>
-      <c r="AFP47" s="13"/>
-      <c r="AFQ47" s="13"/>
-      <c r="AFR47" s="13"/>
-      <c r="AFS47" s="13"/>
-      <c r="AFT47" s="13"/>
-      <c r="AFU47" s="13"/>
-      <c r="AFV47" s="13"/>
-      <c r="AFW47" s="13"/>
-      <c r="AFX47" s="13"/>
-      <c r="AFY47" s="13"/>
-      <c r="AFZ47" s="13"/>
-      <c r="AGA47" s="13"/>
-      <c r="AGB47" s="13"/>
-      <c r="AGC47" s="13"/>
-      <c r="AGD47" s="13"/>
-      <c r="AGE47" s="13"/>
-      <c r="AGF47" s="13"/>
-      <c r="AGG47" s="13"/>
-      <c r="AGH47" s="13"/>
-      <c r="AGI47" s="13"/>
-      <c r="AGJ47" s="13"/>
-      <c r="AGK47" s="13"/>
-      <c r="AGL47" s="13"/>
-      <c r="AGM47" s="13"/>
-      <c r="AGN47" s="13"/>
-      <c r="AGO47" s="13"/>
-      <c r="AGP47" s="13"/>
-      <c r="AGQ47" s="13"/>
-      <c r="AGR47" s="13"/>
-      <c r="AGS47" s="13"/>
-      <c r="AGT47" s="13"/>
-      <c r="AGU47" s="13"/>
-      <c r="AGV47" s="13"/>
-      <c r="AGW47" s="13"/>
-      <c r="AGX47" s="13"/>
-      <c r="AGY47" s="13"/>
-      <c r="AGZ47" s="13"/>
-      <c r="AHA47" s="13"/>
-      <c r="AHB47" s="13"/>
-      <c r="AHC47" s="13"/>
-      <c r="AHD47" s="13"/>
-      <c r="AHE47" s="13"/>
-      <c r="AHF47" s="13"/>
-      <c r="AHG47" s="13"/>
-      <c r="AHH47" s="13"/>
-      <c r="AHI47" s="13"/>
-      <c r="AHJ47" s="13"/>
-      <c r="AHK47" s="13"/>
-      <c r="AHL47" s="13"/>
-      <c r="AHM47" s="13"/>
-      <c r="AHN47" s="13"/>
-      <c r="AHO47" s="13"/>
-      <c r="AHP47" s="13"/>
-      <c r="AHQ47" s="13"/>
-      <c r="AHR47" s="13"/>
-      <c r="AHS47" s="13"/>
-      <c r="AHT47" s="13"/>
-      <c r="AHU47" s="13"/>
-      <c r="AHV47" s="13"/>
-      <c r="AHW47" s="13"/>
-      <c r="AHX47" s="13"/>
-      <c r="AHY47" s="13"/>
-      <c r="AHZ47" s="13"/>
-      <c r="AIA47" s="13"/>
-      <c r="AIB47" s="13"/>
-      <c r="AIC47" s="13"/>
-      <c r="AID47" s="13"/>
-      <c r="AIE47" s="13"/>
-      <c r="AIF47" s="13"/>
-      <c r="AIG47" s="13"/>
-      <c r="AIH47" s="13"/>
-      <c r="AII47" s="13"/>
-      <c r="AIJ47" s="13"/>
-      <c r="AIK47" s="13"/>
-      <c r="AIL47" s="13"/>
-      <c r="AIM47" s="13"/>
-      <c r="AIN47" s="13"/>
-      <c r="AIO47" s="13"/>
-      <c r="AIP47" s="13"/>
-      <c r="AIQ47" s="13"/>
-      <c r="AIR47" s="13"/>
-      <c r="AIS47" s="13"/>
-      <c r="AIT47" s="13"/>
-      <c r="AIU47" s="13"/>
-      <c r="AIV47" s="13"/>
-      <c r="AIW47" s="13"/>
-      <c r="AIX47" s="13"/>
-      <c r="AIY47" s="13"/>
-      <c r="AIZ47" s="13"/>
-      <c r="AJA47" s="13"/>
-      <c r="AJB47" s="13"/>
-      <c r="AJC47" s="13"/>
-      <c r="AJD47" s="13"/>
-      <c r="AJE47" s="13"/>
-      <c r="AJF47" s="13"/>
-      <c r="AJG47" s="13"/>
-      <c r="AJH47" s="13"/>
-      <c r="AJI47" s="13"/>
-      <c r="AJJ47" s="13"/>
-      <c r="AJK47" s="13"/>
-      <c r="AJL47" s="13"/>
-      <c r="AJM47" s="13"/>
-      <c r="AJN47" s="13"/>
-      <c r="AJO47" s="13"/>
-      <c r="AJP47" s="13"/>
-      <c r="AJQ47" s="13"/>
-      <c r="AJR47" s="13"/>
-      <c r="AJS47" s="13"/>
-      <c r="AJT47" s="13"/>
-      <c r="AJU47" s="13"/>
-      <c r="AJV47" s="13"/>
-      <c r="AJW47" s="13"/>
-      <c r="AJX47" s="13"/>
-      <c r="AJY47" s="13"/>
-      <c r="AJZ47" s="13"/>
-      <c r="AKA47" s="13"/>
-      <c r="AKB47" s="13"/>
-      <c r="AKC47" s="13"/>
-      <c r="AKD47" s="13"/>
-      <c r="AKE47" s="13"/>
-      <c r="AKF47" s="13"/>
-      <c r="AKG47" s="13"/>
-      <c r="AKH47" s="13"/>
-      <c r="AKI47" s="13"/>
-      <c r="AKJ47" s="13"/>
-      <c r="AKK47" s="13"/>
-      <c r="AKL47" s="13"/>
-      <c r="AKM47" s="13"/>
-      <c r="AKN47" s="13"/>
-      <c r="AKO47" s="13"/>
-      <c r="AKP47" s="13"/>
-      <c r="AKQ47" s="13"/>
-      <c r="AKR47" s="13"/>
-      <c r="AKS47" s="13"/>
-      <c r="AKT47" s="13"/>
-      <c r="AKU47" s="13"/>
-      <c r="AKV47" s="13"/>
-      <c r="AKW47" s="13"/>
-      <c r="AKX47" s="13"/>
-      <c r="AKY47" s="13"/>
-      <c r="AKZ47" s="13"/>
-      <c r="ALA47" s="13"/>
-      <c r="ALB47" s="13"/>
-      <c r="ALC47" s="13"/>
-      <c r="ALD47" s="13"/>
-      <c r="ALE47" s="13"/>
-      <c r="ALF47" s="13"/>
-      <c r="ALG47" s="13"/>
-      <c r="ALH47" s="13"/>
-      <c r="ALI47" s="13"/>
-      <c r="ALJ47" s="13"/>
-      <c r="ALK47" s="13"/>
-      <c r="ALL47" s="13"/>
-      <c r="ALM47" s="13"/>
-      <c r="ALN47" s="13"/>
-      <c r="ALO47" s="13"/>
-      <c r="ALP47" s="13"/>
-      <c r="ALQ47" s="13"/>
-      <c r="ALR47" s="13"/>
-      <c r="ALS47" s="13"/>
-      <c r="ALT47" s="13"/>
-      <c r="ALU47" s="13"/>
-      <c r="ALV47" s="13"/>
-      <c r="ALW47" s="13"/>
-      <c r="ALX47" s="13"/>
-      <c r="ALY47" s="13"/>
-      <c r="ALZ47" s="13"/>
-      <c r="AMA47" s="13"/>
-      <c r="AMB47" s="13"/>
-      <c r="AMC47" s="13"/>
-      <c r="AMD47" s="13"/>
-      <c r="AME47" s="13"/>
-      <c r="AMF47" s="13"/>
-      <c r="AMG47" s="13"/>
-      <c r="AMH47" s="13"/>
-      <c r="AMI47" s="13"/>
-      <c r="AMJ47" s="13"/>
-      <c r="AMK47" s="13"/>
+      <c r="BQ47" s="15"/>
     </row>
     <row r="48" spans="1:1025" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
-      <c r="AN48" s="13"/>
-      <c r="AO48" s="13"/>
-      <c r="AP48" s="13"/>
-      <c r="AQ48" s="13"/>
-      <c r="AR48" s="13"/>
-      <c r="AS48" s="13"/>
-      <c r="AT48" s="13"/>
-      <c r="AU48" s="13"/>
+      <c r="I48" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
       <c r="AV48" s="13"/>
       <c r="AW48" s="13"/>
       <c r="AX48" s="13"/>
@@ -8985,9 +8017,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="29"/>
-      <c r="D49" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -10013,18 +9043,18 @@
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
@@ -11047,7 +10077,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
@@ -12075,7 +11105,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
@@ -13102,7 +12132,9 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="38"/>
+      <c r="I53" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
@@ -14128,9 +13160,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="38" t="s">
-        <v>119</v>
-      </c>
+      <c r="I54" s="38"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
@@ -15157,7 +14187,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="38" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
@@ -16184,11 +15214,13 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="I56" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
@@ -17210,9 +16242,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -18229,25 +17259,1044 @@
       <c r="AMJ57" s="13"/>
       <c r="AMK57" s="13"/>
     </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1025" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="29"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13"/>
+      <c r="AC58" s="13"/>
       <c r="AD58" s="13"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="13"/>
       <c r="AG58" s="16"/>
+      <c r="AH58" s="13"/>
+      <c r="AI58" s="13"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="13"/>
+      <c r="AL58" s="13"/>
+      <c r="AM58" s="13"/>
+      <c r="AN58" s="13"/>
+      <c r="AO58" s="13"/>
+      <c r="AP58" s="13"/>
+      <c r="AQ58" s="13"/>
+      <c r="AR58" s="13"/>
+      <c r="AS58" s="13"/>
+      <c r="AT58" s="13"/>
+      <c r="AU58" s="13"/>
+      <c r="AV58" s="13"/>
+      <c r="AW58" s="13"/>
+      <c r="AX58" s="13"/>
+      <c r="AY58" s="13"/>
+      <c r="AZ58" s="13"/>
+      <c r="BA58" s="13"/>
+      <c r="BB58" s="13"/>
+      <c r="BC58" s="13"/>
+      <c r="BD58" s="13"/>
+      <c r="BE58" s="13"/>
+      <c r="BF58" s="13"/>
+      <c r="BG58" s="13"/>
+      <c r="BH58" s="13"/>
+      <c r="BI58" s="13"/>
+      <c r="BJ58" s="13"/>
+      <c r="BK58" s="13"/>
+      <c r="BL58" s="13"/>
+      <c r="BM58" s="13"/>
+      <c r="BN58" s="13"/>
+      <c r="BO58" s="13"/>
       <c r="BP58" s="30"/>
+      <c r="BR58" s="13"/>
+      <c r="BS58" s="13"/>
+      <c r="BT58" s="13"/>
+      <c r="BU58" s="13"/>
+      <c r="BV58" s="13"/>
+      <c r="BW58" s="13"/>
+      <c r="BX58" s="13"/>
+      <c r="BY58" s="13"/>
+      <c r="BZ58" s="13"/>
+      <c r="CA58" s="13"/>
+      <c r="CB58" s="13"/>
+      <c r="CC58" s="13"/>
+      <c r="CD58" s="13"/>
+      <c r="CE58" s="13"/>
+      <c r="CF58" s="13"/>
+      <c r="CG58" s="13"/>
+      <c r="CH58" s="13"/>
+      <c r="CI58" s="13"/>
+      <c r="CJ58" s="13"/>
+      <c r="CK58" s="13"/>
+      <c r="CL58" s="13"/>
+      <c r="CM58" s="13"/>
+      <c r="CN58" s="13"/>
+      <c r="CO58" s="13"/>
+      <c r="CP58" s="13"/>
+      <c r="CQ58" s="13"/>
+      <c r="CR58" s="13"/>
+      <c r="CS58" s="13"/>
+      <c r="CT58" s="13"/>
+      <c r="CU58" s="13"/>
+      <c r="CV58" s="13"/>
+      <c r="CW58" s="13"/>
+      <c r="CX58" s="13"/>
+      <c r="CY58" s="13"/>
+      <c r="CZ58" s="13"/>
+      <c r="DA58" s="13"/>
+      <c r="DB58" s="13"/>
+      <c r="DC58" s="13"/>
+      <c r="DD58" s="13"/>
+      <c r="DE58" s="13"/>
+      <c r="DF58" s="13"/>
+      <c r="DG58" s="13"/>
+      <c r="DH58" s="13"/>
+      <c r="DI58" s="13"/>
+      <c r="DJ58" s="13"/>
+      <c r="DK58" s="13"/>
+      <c r="DL58" s="13"/>
+      <c r="DM58" s="13"/>
+      <c r="DN58" s="13"/>
+      <c r="DO58" s="13"/>
+      <c r="DP58" s="13"/>
+      <c r="DQ58" s="13"/>
+      <c r="DR58" s="13"/>
+      <c r="DS58" s="13"/>
+      <c r="DT58" s="13"/>
+      <c r="DU58" s="13"/>
+      <c r="DV58" s="13"/>
+      <c r="DW58" s="13"/>
+      <c r="DX58" s="13"/>
+      <c r="DY58" s="13"/>
+      <c r="DZ58" s="13"/>
+      <c r="EA58" s="13"/>
+      <c r="EB58" s="13"/>
+      <c r="EC58" s="13"/>
+      <c r="ED58" s="13"/>
+      <c r="EE58" s="13"/>
+      <c r="EF58" s="13"/>
+      <c r="EG58" s="13"/>
+      <c r="EH58" s="13"/>
+      <c r="EI58" s="13"/>
+      <c r="EJ58" s="13"/>
+      <c r="EK58" s="13"/>
+      <c r="EL58" s="13"/>
+      <c r="EM58" s="13"/>
+      <c r="EN58" s="13"/>
+      <c r="EO58" s="13"/>
+      <c r="EP58" s="13"/>
+      <c r="EQ58" s="13"/>
+      <c r="ER58" s="13"/>
+      <c r="ES58" s="13"/>
+      <c r="ET58" s="13"/>
+      <c r="EU58" s="13"/>
+      <c r="EV58" s="13"/>
+      <c r="EW58" s="13"/>
+      <c r="EX58" s="13"/>
+      <c r="EY58" s="13"/>
+      <c r="EZ58" s="13"/>
+      <c r="FA58" s="13"/>
+      <c r="FB58" s="13"/>
+      <c r="FC58" s="13"/>
+      <c r="FD58" s="13"/>
+      <c r="FE58" s="13"/>
+      <c r="FF58" s="13"/>
+      <c r="FG58" s="13"/>
+      <c r="FH58" s="13"/>
+      <c r="FI58" s="13"/>
+      <c r="FJ58" s="13"/>
+      <c r="FK58" s="13"/>
+      <c r="FL58" s="13"/>
+      <c r="FM58" s="13"/>
+      <c r="FN58" s="13"/>
+      <c r="FO58" s="13"/>
+      <c r="FP58" s="13"/>
+      <c r="FQ58" s="13"/>
+      <c r="FR58" s="13"/>
+      <c r="FS58" s="13"/>
+      <c r="FT58" s="13"/>
+      <c r="FU58" s="13"/>
+      <c r="FV58" s="13"/>
+      <c r="FW58" s="13"/>
+      <c r="FX58" s="13"/>
+      <c r="FY58" s="13"/>
+      <c r="FZ58" s="13"/>
+      <c r="GA58" s="13"/>
+      <c r="GB58" s="13"/>
+      <c r="GC58" s="13"/>
+      <c r="GD58" s="13"/>
+      <c r="GE58" s="13"/>
+      <c r="GF58" s="13"/>
+      <c r="GG58" s="13"/>
+      <c r="GH58" s="13"/>
+      <c r="GI58" s="13"/>
+      <c r="GJ58" s="13"/>
+      <c r="GK58" s="13"/>
+      <c r="GL58" s="13"/>
+      <c r="GM58" s="13"/>
+      <c r="GN58" s="13"/>
+      <c r="GO58" s="13"/>
+      <c r="GP58" s="13"/>
+      <c r="GQ58" s="13"/>
+      <c r="GR58" s="13"/>
+      <c r="GS58" s="13"/>
+      <c r="GT58" s="13"/>
+      <c r="GU58" s="13"/>
+      <c r="GV58" s="13"/>
+      <c r="GW58" s="13"/>
+      <c r="GX58" s="13"/>
+      <c r="GY58" s="13"/>
+      <c r="GZ58" s="13"/>
+      <c r="HA58" s="13"/>
+      <c r="HB58" s="13"/>
+      <c r="HC58" s="13"/>
+      <c r="HD58" s="13"/>
+      <c r="HE58" s="13"/>
+      <c r="HF58" s="13"/>
+      <c r="HG58" s="13"/>
+      <c r="HH58" s="13"/>
+      <c r="HI58" s="13"/>
+      <c r="HJ58" s="13"/>
+      <c r="HK58" s="13"/>
+      <c r="HL58" s="13"/>
+      <c r="HM58" s="13"/>
+      <c r="HN58" s="13"/>
+      <c r="HO58" s="13"/>
+      <c r="HP58" s="13"/>
+      <c r="HQ58" s="13"/>
+      <c r="HR58" s="13"/>
+      <c r="HS58" s="13"/>
+      <c r="HT58" s="13"/>
+      <c r="HU58" s="13"/>
+      <c r="HV58" s="13"/>
+      <c r="HW58" s="13"/>
+      <c r="HX58" s="13"/>
+      <c r="HY58" s="13"/>
+      <c r="HZ58" s="13"/>
+      <c r="IA58" s="13"/>
+      <c r="IB58" s="13"/>
+      <c r="IC58" s="13"/>
+      <c r="ID58" s="13"/>
+      <c r="IE58" s="13"/>
+      <c r="IF58" s="13"/>
+      <c r="IG58" s="13"/>
+      <c r="IH58" s="13"/>
+      <c r="II58" s="13"/>
+      <c r="IJ58" s="13"/>
+      <c r="IK58" s="13"/>
+      <c r="IL58" s="13"/>
+      <c r="IM58" s="13"/>
+      <c r="IN58" s="13"/>
+      <c r="IO58" s="13"/>
+      <c r="IP58" s="13"/>
+      <c r="IQ58" s="13"/>
+      <c r="IR58" s="13"/>
+      <c r="IS58" s="13"/>
+      <c r="IT58" s="13"/>
+      <c r="IU58" s="13"/>
+      <c r="IV58" s="13"/>
+      <c r="IW58" s="13"/>
+      <c r="IX58" s="13"/>
+      <c r="IY58" s="13"/>
+      <c r="IZ58" s="13"/>
+      <c r="JA58" s="13"/>
+      <c r="JB58" s="13"/>
+      <c r="JC58" s="13"/>
+      <c r="JD58" s="13"/>
+      <c r="JE58" s="13"/>
+      <c r="JF58" s="13"/>
+      <c r="JG58" s="13"/>
+      <c r="JH58" s="13"/>
+      <c r="JI58" s="13"/>
+      <c r="JJ58" s="13"/>
+      <c r="JK58" s="13"/>
+      <c r="JL58" s="13"/>
+      <c r="JM58" s="13"/>
+      <c r="JN58" s="13"/>
+      <c r="JO58" s="13"/>
+      <c r="JP58" s="13"/>
+      <c r="JQ58" s="13"/>
+      <c r="JR58" s="13"/>
+      <c r="JS58" s="13"/>
+      <c r="JT58" s="13"/>
+      <c r="JU58" s="13"/>
+      <c r="JV58" s="13"/>
+      <c r="JW58" s="13"/>
+      <c r="JX58" s="13"/>
+      <c r="JY58" s="13"/>
+      <c r="JZ58" s="13"/>
+      <c r="KA58" s="13"/>
+      <c r="KB58" s="13"/>
+      <c r="KC58" s="13"/>
+      <c r="KD58" s="13"/>
+      <c r="KE58" s="13"/>
+      <c r="KF58" s="13"/>
+      <c r="KG58" s="13"/>
+      <c r="KH58" s="13"/>
+      <c r="KI58" s="13"/>
+      <c r="KJ58" s="13"/>
+      <c r="KK58" s="13"/>
+      <c r="KL58" s="13"/>
+      <c r="KM58" s="13"/>
+      <c r="KN58" s="13"/>
+      <c r="KO58" s="13"/>
+      <c r="KP58" s="13"/>
+      <c r="KQ58" s="13"/>
+      <c r="KR58" s="13"/>
+      <c r="KS58" s="13"/>
+      <c r="KT58" s="13"/>
+      <c r="KU58" s="13"/>
+      <c r="KV58" s="13"/>
+      <c r="KW58" s="13"/>
+      <c r="KX58" s="13"/>
+      <c r="KY58" s="13"/>
+      <c r="KZ58" s="13"/>
+      <c r="LA58" s="13"/>
+      <c r="LB58" s="13"/>
+      <c r="LC58" s="13"/>
+      <c r="LD58" s="13"/>
+      <c r="LE58" s="13"/>
+      <c r="LF58" s="13"/>
+      <c r="LG58" s="13"/>
+      <c r="LH58" s="13"/>
+      <c r="LI58" s="13"/>
+      <c r="LJ58" s="13"/>
+      <c r="LK58" s="13"/>
+      <c r="LL58" s="13"/>
+      <c r="LM58" s="13"/>
+      <c r="LN58" s="13"/>
+      <c r="LO58" s="13"/>
+      <c r="LP58" s="13"/>
+      <c r="LQ58" s="13"/>
+      <c r="LR58" s="13"/>
+      <c r="LS58" s="13"/>
+      <c r="LT58" s="13"/>
+      <c r="LU58" s="13"/>
+      <c r="LV58" s="13"/>
+      <c r="LW58" s="13"/>
+      <c r="LX58" s="13"/>
+      <c r="LY58" s="13"/>
+      <c r="LZ58" s="13"/>
+      <c r="MA58" s="13"/>
+      <c r="MB58" s="13"/>
+      <c r="MC58" s="13"/>
+      <c r="MD58" s="13"/>
+      <c r="ME58" s="13"/>
+      <c r="MF58" s="13"/>
+      <c r="MG58" s="13"/>
+      <c r="MH58" s="13"/>
+      <c r="MI58" s="13"/>
+      <c r="MJ58" s="13"/>
+      <c r="MK58" s="13"/>
+      <c r="ML58" s="13"/>
+      <c r="MM58" s="13"/>
+      <c r="MN58" s="13"/>
+      <c r="MO58" s="13"/>
+      <c r="MP58" s="13"/>
+      <c r="MQ58" s="13"/>
+      <c r="MR58" s="13"/>
+      <c r="MS58" s="13"/>
+      <c r="MT58" s="13"/>
+      <c r="MU58" s="13"/>
+      <c r="MV58" s="13"/>
+      <c r="MW58" s="13"/>
+      <c r="MX58" s="13"/>
+      <c r="MY58" s="13"/>
+      <c r="MZ58" s="13"/>
+      <c r="NA58" s="13"/>
+      <c r="NB58" s="13"/>
+      <c r="NC58" s="13"/>
+      <c r="ND58" s="13"/>
+      <c r="NE58" s="13"/>
+      <c r="NF58" s="13"/>
+      <c r="NG58" s="13"/>
+      <c r="NH58" s="13"/>
+      <c r="NI58" s="13"/>
+      <c r="NJ58" s="13"/>
+      <c r="NK58" s="13"/>
+      <c r="NL58" s="13"/>
+      <c r="NM58" s="13"/>
+      <c r="NN58" s="13"/>
+      <c r="NO58" s="13"/>
+      <c r="NP58" s="13"/>
+      <c r="NQ58" s="13"/>
+      <c r="NR58" s="13"/>
+      <c r="NS58" s="13"/>
+      <c r="NT58" s="13"/>
+      <c r="NU58" s="13"/>
+      <c r="NV58" s="13"/>
+      <c r="NW58" s="13"/>
+      <c r="NX58" s="13"/>
+      <c r="NY58" s="13"/>
+      <c r="NZ58" s="13"/>
+      <c r="OA58" s="13"/>
+      <c r="OB58" s="13"/>
+      <c r="OC58" s="13"/>
+      <c r="OD58" s="13"/>
+      <c r="OE58" s="13"/>
+      <c r="OF58" s="13"/>
+      <c r="OG58" s="13"/>
+      <c r="OH58" s="13"/>
+      <c r="OI58" s="13"/>
+      <c r="OJ58" s="13"/>
+      <c r="OK58" s="13"/>
+      <c r="OL58" s="13"/>
+      <c r="OM58" s="13"/>
+      <c r="ON58" s="13"/>
+      <c r="OO58" s="13"/>
+      <c r="OP58" s="13"/>
+      <c r="OQ58" s="13"/>
+      <c r="OR58" s="13"/>
+      <c r="OS58" s="13"/>
+      <c r="OT58" s="13"/>
+      <c r="OU58" s="13"/>
+      <c r="OV58" s="13"/>
+      <c r="OW58" s="13"/>
+      <c r="OX58" s="13"/>
+      <c r="OY58" s="13"/>
+      <c r="OZ58" s="13"/>
+      <c r="PA58" s="13"/>
+      <c r="PB58" s="13"/>
+      <c r="PC58" s="13"/>
+      <c r="PD58" s="13"/>
+      <c r="PE58" s="13"/>
+      <c r="PF58" s="13"/>
+      <c r="PG58" s="13"/>
+      <c r="PH58" s="13"/>
+      <c r="PI58" s="13"/>
+      <c r="PJ58" s="13"/>
+      <c r="PK58" s="13"/>
+      <c r="PL58" s="13"/>
+      <c r="PM58" s="13"/>
+      <c r="PN58" s="13"/>
+      <c r="PO58" s="13"/>
+      <c r="PP58" s="13"/>
+      <c r="PQ58" s="13"/>
+      <c r="PR58" s="13"/>
+      <c r="PS58" s="13"/>
+      <c r="PT58" s="13"/>
+      <c r="PU58" s="13"/>
+      <c r="PV58" s="13"/>
+      <c r="PW58" s="13"/>
+      <c r="PX58" s="13"/>
+      <c r="PY58" s="13"/>
+      <c r="PZ58" s="13"/>
+      <c r="QA58" s="13"/>
+      <c r="QB58" s="13"/>
+      <c r="QC58" s="13"/>
+      <c r="QD58" s="13"/>
+      <c r="QE58" s="13"/>
+      <c r="QF58" s="13"/>
+      <c r="QG58" s="13"/>
+      <c r="QH58" s="13"/>
+      <c r="QI58" s="13"/>
+      <c r="QJ58" s="13"/>
+      <c r="QK58" s="13"/>
+      <c r="QL58" s="13"/>
+      <c r="QM58" s="13"/>
+      <c r="QN58" s="13"/>
+      <c r="QO58" s="13"/>
+      <c r="QP58" s="13"/>
+      <c r="QQ58" s="13"/>
+      <c r="QR58" s="13"/>
+      <c r="QS58" s="13"/>
+      <c r="QT58" s="13"/>
+      <c r="QU58" s="13"/>
+      <c r="QV58" s="13"/>
+      <c r="QW58" s="13"/>
+      <c r="QX58" s="13"/>
+      <c r="QY58" s="13"/>
+      <c r="QZ58" s="13"/>
+      <c r="RA58" s="13"/>
+      <c r="RB58" s="13"/>
+      <c r="RC58" s="13"/>
+      <c r="RD58" s="13"/>
+      <c r="RE58" s="13"/>
+      <c r="RF58" s="13"/>
+      <c r="RG58" s="13"/>
+      <c r="RH58" s="13"/>
+      <c r="RI58" s="13"/>
+      <c r="RJ58" s="13"/>
+      <c r="RK58" s="13"/>
+      <c r="RL58" s="13"/>
+      <c r="RM58" s="13"/>
+      <c r="RN58" s="13"/>
+      <c r="RO58" s="13"/>
+      <c r="RP58" s="13"/>
+      <c r="RQ58" s="13"/>
+      <c r="RR58" s="13"/>
+      <c r="RS58" s="13"/>
+      <c r="RT58" s="13"/>
+      <c r="RU58" s="13"/>
+      <c r="RV58" s="13"/>
+      <c r="RW58" s="13"/>
+      <c r="RX58" s="13"/>
+      <c r="RY58" s="13"/>
+      <c r="RZ58" s="13"/>
+      <c r="SA58" s="13"/>
+      <c r="SB58" s="13"/>
+      <c r="SC58" s="13"/>
+      <c r="SD58" s="13"/>
+      <c r="SE58" s="13"/>
+      <c r="SF58" s="13"/>
+      <c r="SG58" s="13"/>
+      <c r="SH58" s="13"/>
+      <c r="SI58" s="13"/>
+      <c r="SJ58" s="13"/>
+      <c r="SK58" s="13"/>
+      <c r="SL58" s="13"/>
+      <c r="SM58" s="13"/>
+      <c r="SN58" s="13"/>
+      <c r="SO58" s="13"/>
+      <c r="SP58" s="13"/>
+      <c r="SQ58" s="13"/>
+      <c r="SR58" s="13"/>
+      <c r="SS58" s="13"/>
+      <c r="ST58" s="13"/>
+      <c r="SU58" s="13"/>
+      <c r="SV58" s="13"/>
+      <c r="SW58" s="13"/>
+      <c r="SX58" s="13"/>
+      <c r="SY58" s="13"/>
+      <c r="SZ58" s="13"/>
+      <c r="TA58" s="13"/>
+      <c r="TB58" s="13"/>
+      <c r="TC58" s="13"/>
+      <c r="TD58" s="13"/>
+      <c r="TE58" s="13"/>
+      <c r="TF58" s="13"/>
+      <c r="TG58" s="13"/>
+      <c r="TH58" s="13"/>
+      <c r="TI58" s="13"/>
+      <c r="TJ58" s="13"/>
+      <c r="TK58" s="13"/>
+      <c r="TL58" s="13"/>
+      <c r="TM58" s="13"/>
+      <c r="TN58" s="13"/>
+      <c r="TO58" s="13"/>
+      <c r="TP58" s="13"/>
+      <c r="TQ58" s="13"/>
+      <c r="TR58" s="13"/>
+      <c r="TS58" s="13"/>
+      <c r="TT58" s="13"/>
+      <c r="TU58" s="13"/>
+      <c r="TV58" s="13"/>
+      <c r="TW58" s="13"/>
+      <c r="TX58" s="13"/>
+      <c r="TY58" s="13"/>
+      <c r="TZ58" s="13"/>
+      <c r="UA58" s="13"/>
+      <c r="UB58" s="13"/>
+      <c r="UC58" s="13"/>
+      <c r="UD58" s="13"/>
+      <c r="UE58" s="13"/>
+      <c r="UF58" s="13"/>
+      <c r="UG58" s="13"/>
+      <c r="UH58" s="13"/>
+      <c r="UI58" s="13"/>
+      <c r="UJ58" s="13"/>
+      <c r="UK58" s="13"/>
+      <c r="UL58" s="13"/>
+      <c r="UM58" s="13"/>
+      <c r="UN58" s="13"/>
+      <c r="UO58" s="13"/>
+      <c r="UP58" s="13"/>
+      <c r="UQ58" s="13"/>
+      <c r="UR58" s="13"/>
+      <c r="US58" s="13"/>
+      <c r="UT58" s="13"/>
+      <c r="UU58" s="13"/>
+      <c r="UV58" s="13"/>
+      <c r="UW58" s="13"/>
+      <c r="UX58" s="13"/>
+      <c r="UY58" s="13"/>
+      <c r="UZ58" s="13"/>
+      <c r="VA58" s="13"/>
+      <c r="VB58" s="13"/>
+      <c r="VC58" s="13"/>
+      <c r="VD58" s="13"/>
+      <c r="VE58" s="13"/>
+      <c r="VF58" s="13"/>
+      <c r="VG58" s="13"/>
+      <c r="VH58" s="13"/>
+      <c r="VI58" s="13"/>
+      <c r="VJ58" s="13"/>
+      <c r="VK58" s="13"/>
+      <c r="VL58" s="13"/>
+      <c r="VM58" s="13"/>
+      <c r="VN58" s="13"/>
+      <c r="VO58" s="13"/>
+      <c r="VP58" s="13"/>
+      <c r="VQ58" s="13"/>
+      <c r="VR58" s="13"/>
+      <c r="VS58" s="13"/>
+      <c r="VT58" s="13"/>
+      <c r="VU58" s="13"/>
+      <c r="VV58" s="13"/>
+      <c r="VW58" s="13"/>
+      <c r="VX58" s="13"/>
+      <c r="VY58" s="13"/>
+      <c r="VZ58" s="13"/>
+      <c r="WA58" s="13"/>
+      <c r="WB58" s="13"/>
+      <c r="WC58" s="13"/>
+      <c r="WD58" s="13"/>
+      <c r="WE58" s="13"/>
+      <c r="WF58" s="13"/>
+      <c r="WG58" s="13"/>
+      <c r="WH58" s="13"/>
+      <c r="WI58" s="13"/>
+      <c r="WJ58" s="13"/>
+      <c r="WK58" s="13"/>
+      <c r="WL58" s="13"/>
+      <c r="WM58" s="13"/>
+      <c r="WN58" s="13"/>
+      <c r="WO58" s="13"/>
+      <c r="WP58" s="13"/>
+      <c r="WQ58" s="13"/>
+      <c r="WR58" s="13"/>
+      <c r="WS58" s="13"/>
+      <c r="WT58" s="13"/>
+      <c r="WU58" s="13"/>
+      <c r="WV58" s="13"/>
+      <c r="WW58" s="13"/>
+      <c r="WX58" s="13"/>
+      <c r="WY58" s="13"/>
+      <c r="WZ58" s="13"/>
+      <c r="XA58" s="13"/>
+      <c r="XB58" s="13"/>
+      <c r="XC58" s="13"/>
+      <c r="XD58" s="13"/>
+      <c r="XE58" s="13"/>
+      <c r="XF58" s="13"/>
+      <c r="XG58" s="13"/>
+      <c r="XH58" s="13"/>
+      <c r="XI58" s="13"/>
+      <c r="XJ58" s="13"/>
+      <c r="XK58" s="13"/>
+      <c r="XL58" s="13"/>
+      <c r="XM58" s="13"/>
+      <c r="XN58" s="13"/>
+      <c r="XO58" s="13"/>
+      <c r="XP58" s="13"/>
+      <c r="XQ58" s="13"/>
+      <c r="XR58" s="13"/>
+      <c r="XS58" s="13"/>
+      <c r="XT58" s="13"/>
+      <c r="XU58" s="13"/>
+      <c r="XV58" s="13"/>
+      <c r="XW58" s="13"/>
+      <c r="XX58" s="13"/>
+      <c r="XY58" s="13"/>
+      <c r="XZ58" s="13"/>
+      <c r="YA58" s="13"/>
+      <c r="YB58" s="13"/>
+      <c r="YC58" s="13"/>
+      <c r="YD58" s="13"/>
+      <c r="YE58" s="13"/>
+      <c r="YF58" s="13"/>
+      <c r="YG58" s="13"/>
+      <c r="YH58" s="13"/>
+      <c r="YI58" s="13"/>
+      <c r="YJ58" s="13"/>
+      <c r="YK58" s="13"/>
+      <c r="YL58" s="13"/>
+      <c r="YM58" s="13"/>
+      <c r="YN58" s="13"/>
+      <c r="YO58" s="13"/>
+      <c r="YP58" s="13"/>
+      <c r="YQ58" s="13"/>
+      <c r="YR58" s="13"/>
+      <c r="YS58" s="13"/>
+      <c r="YT58" s="13"/>
+      <c r="YU58" s="13"/>
+      <c r="YV58" s="13"/>
+      <c r="YW58" s="13"/>
+      <c r="YX58" s="13"/>
+      <c r="YY58" s="13"/>
+      <c r="YZ58" s="13"/>
+      <c r="ZA58" s="13"/>
+      <c r="ZB58" s="13"/>
+      <c r="ZC58" s="13"/>
+      <c r="ZD58" s="13"/>
+      <c r="ZE58" s="13"/>
+      <c r="ZF58" s="13"/>
+      <c r="ZG58" s="13"/>
+      <c r="ZH58" s="13"/>
+      <c r="ZI58" s="13"/>
+      <c r="ZJ58" s="13"/>
+      <c r="ZK58" s="13"/>
+      <c r="ZL58" s="13"/>
+      <c r="ZM58" s="13"/>
+      <c r="ZN58" s="13"/>
+      <c r="ZO58" s="13"/>
+      <c r="ZP58" s="13"/>
+      <c r="ZQ58" s="13"/>
+      <c r="ZR58" s="13"/>
+      <c r="ZS58" s="13"/>
+      <c r="ZT58" s="13"/>
+      <c r="ZU58" s="13"/>
+      <c r="ZV58" s="13"/>
+      <c r="ZW58" s="13"/>
+      <c r="ZX58" s="13"/>
+      <c r="ZY58" s="13"/>
+      <c r="ZZ58" s="13"/>
+      <c r="AAA58" s="13"/>
+      <c r="AAB58" s="13"/>
+      <c r="AAC58" s="13"/>
+      <c r="AAD58" s="13"/>
+      <c r="AAE58" s="13"/>
+      <c r="AAF58" s="13"/>
+      <c r="AAG58" s="13"/>
+      <c r="AAH58" s="13"/>
+      <c r="AAI58" s="13"/>
+      <c r="AAJ58" s="13"/>
+      <c r="AAK58" s="13"/>
+      <c r="AAL58" s="13"/>
+      <c r="AAM58" s="13"/>
+      <c r="AAN58" s="13"/>
+      <c r="AAO58" s="13"/>
+      <c r="AAP58" s="13"/>
+      <c r="AAQ58" s="13"/>
+      <c r="AAR58" s="13"/>
+      <c r="AAS58" s="13"/>
+      <c r="AAT58" s="13"/>
+      <c r="AAU58" s="13"/>
+      <c r="AAV58" s="13"/>
+      <c r="AAW58" s="13"/>
+      <c r="AAX58" s="13"/>
+      <c r="AAY58" s="13"/>
+      <c r="AAZ58" s="13"/>
+      <c r="ABA58" s="13"/>
+      <c r="ABB58" s="13"/>
+      <c r="ABC58" s="13"/>
+      <c r="ABD58" s="13"/>
+      <c r="ABE58" s="13"/>
+      <c r="ABF58" s="13"/>
+      <c r="ABG58" s="13"/>
+      <c r="ABH58" s="13"/>
+      <c r="ABI58" s="13"/>
+      <c r="ABJ58" s="13"/>
+      <c r="ABK58" s="13"/>
+      <c r="ABL58" s="13"/>
+      <c r="ABM58" s="13"/>
+      <c r="ABN58" s="13"/>
+      <c r="ABO58" s="13"/>
+      <c r="ABP58" s="13"/>
+      <c r="ABQ58" s="13"/>
+      <c r="ABR58" s="13"/>
+      <c r="ABS58" s="13"/>
+      <c r="ABT58" s="13"/>
+      <c r="ABU58" s="13"/>
+      <c r="ABV58" s="13"/>
+      <c r="ABW58" s="13"/>
+      <c r="ABX58" s="13"/>
+      <c r="ABY58" s="13"/>
+      <c r="ABZ58" s="13"/>
+      <c r="ACA58" s="13"/>
+      <c r="ACB58" s="13"/>
+      <c r="ACC58" s="13"/>
+      <c r="ACD58" s="13"/>
+      <c r="ACE58" s="13"/>
+      <c r="ACF58" s="13"/>
+      <c r="ACG58" s="13"/>
+      <c r="ACH58" s="13"/>
+      <c r="ACI58" s="13"/>
+      <c r="ACJ58" s="13"/>
+      <c r="ACK58" s="13"/>
+      <c r="ACL58" s="13"/>
+      <c r="ACM58" s="13"/>
+      <c r="ACN58" s="13"/>
+      <c r="ACO58" s="13"/>
+      <c r="ACP58" s="13"/>
+      <c r="ACQ58" s="13"/>
+      <c r="ACR58" s="13"/>
+      <c r="ACS58" s="13"/>
+      <c r="ACT58" s="13"/>
+      <c r="ACU58" s="13"/>
+      <c r="ACV58" s="13"/>
+      <c r="ACW58" s="13"/>
+      <c r="ACX58" s="13"/>
+      <c r="ACY58" s="13"/>
+      <c r="ACZ58" s="13"/>
+      <c r="ADA58" s="13"/>
+      <c r="ADB58" s="13"/>
+      <c r="ADC58" s="13"/>
+      <c r="ADD58" s="13"/>
+      <c r="ADE58" s="13"/>
+      <c r="ADF58" s="13"/>
+      <c r="ADG58" s="13"/>
+      <c r="ADH58" s="13"/>
+      <c r="ADI58" s="13"/>
+      <c r="ADJ58" s="13"/>
+      <c r="ADK58" s="13"/>
+      <c r="ADL58" s="13"/>
+      <c r="ADM58" s="13"/>
+      <c r="ADN58" s="13"/>
+      <c r="ADO58" s="13"/>
+      <c r="ADP58" s="13"/>
+      <c r="ADQ58" s="13"/>
+      <c r="ADR58" s="13"/>
+      <c r="ADS58" s="13"/>
+      <c r="ADT58" s="13"/>
+      <c r="ADU58" s="13"/>
+      <c r="ADV58" s="13"/>
+      <c r="ADW58" s="13"/>
+      <c r="ADX58" s="13"/>
+      <c r="ADY58" s="13"/>
+      <c r="ADZ58" s="13"/>
+      <c r="AEA58" s="13"/>
+      <c r="AEB58" s="13"/>
+      <c r="AEC58" s="13"/>
+      <c r="AED58" s="13"/>
+      <c r="AEE58" s="13"/>
+      <c r="AEF58" s="13"/>
+      <c r="AEG58" s="13"/>
+      <c r="AEH58" s="13"/>
+      <c r="AEI58" s="13"/>
+      <c r="AEJ58" s="13"/>
+      <c r="AEK58" s="13"/>
+      <c r="AEL58" s="13"/>
+      <c r="AEM58" s="13"/>
+      <c r="AEN58" s="13"/>
+      <c r="AEO58" s="13"/>
+      <c r="AEP58" s="13"/>
+      <c r="AEQ58" s="13"/>
+      <c r="AER58" s="13"/>
+      <c r="AES58" s="13"/>
+      <c r="AET58" s="13"/>
+      <c r="AEU58" s="13"/>
+      <c r="AEV58" s="13"/>
+      <c r="AEW58" s="13"/>
+      <c r="AEX58" s="13"/>
+      <c r="AEY58" s="13"/>
+      <c r="AEZ58" s="13"/>
+      <c r="AFA58" s="13"/>
+      <c r="AFB58" s="13"/>
+      <c r="AFC58" s="13"/>
+      <c r="AFD58" s="13"/>
+      <c r="AFE58" s="13"/>
+      <c r="AFF58" s="13"/>
+      <c r="AFG58" s="13"/>
+      <c r="AFH58" s="13"/>
+      <c r="AFI58" s="13"/>
+      <c r="AFJ58" s="13"/>
+      <c r="AFK58" s="13"/>
+      <c r="AFL58" s="13"/>
+      <c r="AFM58" s="13"/>
+      <c r="AFN58" s="13"/>
+      <c r="AFO58" s="13"/>
+      <c r="AFP58" s="13"/>
+      <c r="AFQ58" s="13"/>
+      <c r="AFR58" s="13"/>
+      <c r="AFS58" s="13"/>
+      <c r="AFT58" s="13"/>
+      <c r="AFU58" s="13"/>
+      <c r="AFV58" s="13"/>
+      <c r="AFW58" s="13"/>
+      <c r="AFX58" s="13"/>
+      <c r="AFY58" s="13"/>
+      <c r="AFZ58" s="13"/>
+      <c r="AGA58" s="13"/>
+      <c r="AGB58" s="13"/>
+      <c r="AGC58" s="13"/>
+      <c r="AGD58" s="13"/>
+      <c r="AGE58" s="13"/>
+      <c r="AGF58" s="13"/>
+      <c r="AGG58" s="13"/>
+      <c r="AGH58" s="13"/>
+      <c r="AGI58" s="13"/>
+      <c r="AGJ58" s="13"/>
+      <c r="AGK58" s="13"/>
+      <c r="AGL58" s="13"/>
+      <c r="AGM58" s="13"/>
+      <c r="AGN58" s="13"/>
+      <c r="AGO58" s="13"/>
+      <c r="AGP58" s="13"/>
+      <c r="AGQ58" s="13"/>
+      <c r="AGR58" s="13"/>
+      <c r="AGS58" s="13"/>
+      <c r="AGT58" s="13"/>
+      <c r="AGU58" s="13"/>
+      <c r="AGV58" s="13"/>
+      <c r="AGW58" s="13"/>
+      <c r="AGX58" s="13"/>
+      <c r="AGY58" s="13"/>
+      <c r="AGZ58" s="13"/>
+      <c r="AHA58" s="13"/>
+      <c r="AHB58" s="13"/>
+      <c r="AHC58" s="13"/>
+      <c r="AHD58" s="13"/>
+      <c r="AHE58" s="13"/>
+      <c r="AHF58" s="13"/>
+      <c r="AHG58" s="13"/>
+      <c r="AHH58" s="13"/>
+      <c r="AHI58" s="13"/>
+      <c r="AHJ58" s="13"/>
+      <c r="AHK58" s="13"/>
+      <c r="AHL58" s="13"/>
+      <c r="AHM58" s="13"/>
+      <c r="AHN58" s="13"/>
+      <c r="AHO58" s="13"/>
+      <c r="AHP58" s="13"/>
+      <c r="AHQ58" s="13"/>
+      <c r="AHR58" s="13"/>
+      <c r="AHS58" s="13"/>
+      <c r="AHT58" s="13"/>
+      <c r="AHU58" s="13"/>
+      <c r="AHV58" s="13"/>
+      <c r="AHW58" s="13"/>
+      <c r="AHX58" s="13"/>
+      <c r="AHY58" s="13"/>
+      <c r="AHZ58" s="13"/>
+      <c r="AIA58" s="13"/>
+      <c r="AIB58" s="13"/>
+      <c r="AIC58" s="13"/>
+      <c r="AID58" s="13"/>
+      <c r="AIE58" s="13"/>
+      <c r="AIF58" s="13"/>
+      <c r="AIG58" s="13"/>
+      <c r="AIH58" s="13"/>
+      <c r="AII58" s="13"/>
+      <c r="AIJ58" s="13"/>
+      <c r="AIK58" s="13"/>
+      <c r="AIL58" s="13"/>
+      <c r="AIM58" s="13"/>
+      <c r="AIN58" s="13"/>
+      <c r="AIO58" s="13"/>
+      <c r="AIP58" s="13"/>
+      <c r="AIQ58" s="13"/>
+      <c r="AIR58" s="13"/>
+      <c r="AIS58" s="13"/>
+      <c r="AIT58" s="13"/>
+      <c r="AIU58" s="13"/>
+      <c r="AIV58" s="13"/>
+      <c r="AIW58" s="13"/>
+      <c r="AIX58" s="13"/>
+      <c r="AIY58" s="13"/>
+      <c r="AIZ58" s="13"/>
+      <c r="AJA58" s="13"/>
+      <c r="AJB58" s="13"/>
+      <c r="AJC58" s="13"/>
+      <c r="AJD58" s="13"/>
+      <c r="AJE58" s="13"/>
+      <c r="AJF58" s="13"/>
+      <c r="AJG58" s="13"/>
+      <c r="AJH58" s="13"/>
+      <c r="AJI58" s="13"/>
+      <c r="AJJ58" s="13"/>
+      <c r="AJK58" s="13"/>
+      <c r="AJL58" s="13"/>
+      <c r="AJM58" s="13"/>
+      <c r="AJN58" s="13"/>
+      <c r="AJO58" s="13"/>
+      <c r="AJP58" s="13"/>
+      <c r="AJQ58" s="13"/>
+      <c r="AJR58" s="13"/>
+      <c r="AJS58" s="13"/>
+      <c r="AJT58" s="13"/>
+      <c r="AJU58" s="13"/>
+      <c r="AJV58" s="13"/>
+      <c r="AJW58" s="13"/>
+      <c r="AJX58" s="13"/>
+      <c r="AJY58" s="13"/>
+      <c r="AJZ58" s="13"/>
+      <c r="AKA58" s="13"/>
+      <c r="AKB58" s="13"/>
+      <c r="AKC58" s="13"/>
+      <c r="AKD58" s="13"/>
+      <c r="AKE58" s="13"/>
+      <c r="AKF58" s="13"/>
+      <c r="AKG58" s="13"/>
+      <c r="AKH58" s="13"/>
+      <c r="AKI58" s="13"/>
+      <c r="AKJ58" s="13"/>
+      <c r="AKK58" s="13"/>
+      <c r="AKL58" s="13"/>
+      <c r="AKM58" s="13"/>
+      <c r="AKN58" s="13"/>
+      <c r="AKO58" s="13"/>
+      <c r="AKP58" s="13"/>
+      <c r="AKQ58" s="13"/>
+      <c r="AKR58" s="13"/>
+      <c r="AKS58" s="13"/>
+      <c r="AKT58" s="13"/>
+      <c r="AKU58" s="13"/>
+      <c r="AKV58" s="13"/>
+      <c r="AKW58" s="13"/>
+      <c r="AKX58" s="13"/>
+      <c r="AKY58" s="13"/>
+      <c r="AKZ58" s="13"/>
+      <c r="ALA58" s="13"/>
+      <c r="ALB58" s="13"/>
+      <c r="ALC58" s="13"/>
+      <c r="ALD58" s="13"/>
+      <c r="ALE58" s="13"/>
+      <c r="ALF58" s="13"/>
+      <c r="ALG58" s="13"/>
+      <c r="ALH58" s="13"/>
+      <c r="ALI58" s="13"/>
+      <c r="ALJ58" s="13"/>
+      <c r="ALK58" s="13"/>
+      <c r="ALL58" s="13"/>
+      <c r="ALM58" s="13"/>
+      <c r="ALN58" s="13"/>
+      <c r="ALO58" s="13"/>
+      <c r="ALP58" s="13"/>
+      <c r="ALQ58" s="13"/>
+      <c r="ALR58" s="13"/>
+      <c r="ALS58" s="13"/>
+      <c r="ALT58" s="13"/>
+      <c r="ALU58" s="13"/>
+      <c r="ALV58" s="13"/>
+      <c r="ALW58" s="13"/>
+      <c r="ALX58" s="13"/>
+      <c r="ALY58" s="13"/>
+      <c r="ALZ58" s="13"/>
+      <c r="AMA58" s="13"/>
+      <c r="AMB58" s="13"/>
+      <c r="AMC58" s="13"/>
+      <c r="AMD58" s="13"/>
+      <c r="AME58" s="13"/>
+      <c r="AMF58" s="13"/>
+      <c r="AMG58" s="13"/>
+      <c r="AMH58" s="13"/>
+      <c r="AMI58" s="13"/>
+      <c r="AMJ58" s="13"/>
+      <c r="AMK58" s="13"/>
     </row>
     <row r="59" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="C59" s="29"/>
-      <c r="D59" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="AD59" s="13"/>
       <c r="AG59" s="16"/>
       <c r="BP59" s="30"/>
     </row>
     <row r="60" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="C60" s="29"/>
-      <c r="I60" s="16" t="s">
-        <v>89</v>
+      <c r="D60" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="AD60" s="13"/>
       <c r="AG60" s="16"/>
@@ -18255,13 +18304,18 @@
     </row>
     <row r="61" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="C61" s="29"/>
-      <c r="I61" s="13" t="s">
-        <v>118</v>
+      <c r="I61" s="16" t="s">
+        <v>85</v>
       </c>
+      <c r="AD61" s="13"/>
+      <c r="AG61" s="16"/>
       <c r="BP61" s="30"/>
     </row>
     <row r="62" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="C62" s="29"/>
+      <c r="I62" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="BP62" s="30"/>
     </row>
     <row r="63" spans="1:1025" x14ac:dyDescent="0.2">
@@ -18269,75 +18323,79 @@
       <c r="BP63" s="30"/>
     </row>
     <row r="64" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="41"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="32"/>
-      <c r="AM64" s="32"/>
-      <c r="AN64" s="32"/>
-      <c r="AO64" s="32"/>
-      <c r="AP64" s="32"/>
-      <c r="AQ64" s="32"/>
-      <c r="AR64" s="32"/>
-      <c r="AS64" s="32"/>
-      <c r="AT64" s="32"/>
-      <c r="AU64" s="32"/>
-      <c r="AV64" s="32"/>
-      <c r="AW64" s="32"/>
-      <c r="AX64" s="32"/>
-      <c r="AY64" s="32"/>
-      <c r="AZ64" s="32"/>
-      <c r="BA64" s="32"/>
-      <c r="BB64" s="32"/>
-      <c r="BC64" s="32"/>
-      <c r="BD64" s="32"/>
-      <c r="BE64" s="32"/>
-      <c r="BF64" s="32"/>
-      <c r="BG64" s="32"/>
-      <c r="BH64" s="32"/>
-      <c r="BI64" s="32"/>
-      <c r="BJ64" s="32"/>
-      <c r="BK64" s="32"/>
-      <c r="BL64" s="32"/>
-      <c r="BM64" s="32"/>
-      <c r="BN64" s="32"/>
-      <c r="BO64" s="32"/>
-      <c r="BP64" s="33"/>
+      <c r="C64" s="29"/>
+      <c r="BP64" s="30"/>
+    </row>
+    <row r="65" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="32"/>
+      <c r="AA65" s="32"/>
+      <c r="AB65" s="32"/>
+      <c r="AC65" s="32"/>
+      <c r="AD65" s="41"/>
+      <c r="AE65" s="32"/>
+      <c r="AF65" s="32"/>
+      <c r="AG65" s="32"/>
+      <c r="AH65" s="32"/>
+      <c r="AI65" s="32"/>
+      <c r="AJ65" s="32"/>
+      <c r="AK65" s="32"/>
+      <c r="AL65" s="32"/>
+      <c r="AM65" s="32"/>
+      <c r="AN65" s="32"/>
+      <c r="AO65" s="32"/>
+      <c r="AP65" s="32"/>
+      <c r="AQ65" s="32"/>
+      <c r="AR65" s="32"/>
+      <c r="AS65" s="32"/>
+      <c r="AT65" s="32"/>
+      <c r="AU65" s="32"/>
+      <c r="AV65" s="32"/>
+      <c r="AW65" s="32"/>
+      <c r="AX65" s="32"/>
+      <c r="AY65" s="32"/>
+      <c r="AZ65" s="32"/>
+      <c r="BA65" s="32"/>
+      <c r="BB65" s="32"/>
+      <c r="BC65" s="32"/>
+      <c r="BD65" s="32"/>
+      <c r="BE65" s="32"/>
+      <c r="BF65" s="32"/>
+      <c r="BG65" s="32"/>
+      <c r="BH65" s="32"/>
+      <c r="BI65" s="32"/>
+      <c r="BJ65" s="32"/>
+      <c r="BK65" s="32"/>
+      <c r="BL65" s="32"/>
+      <c r="BM65" s="32"/>
+      <c r="BN65" s="32"/>
+      <c r="BO65" s="32"/>
+      <c r="BP65" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="47">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -18368,29 +18426,27 @@
     <mergeCell ref="BJ10:BP10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="T13:V14"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="T12:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W20:BI20"/>
+    <mergeCell ref="BJ20:BP20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="T21:V21"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T22 T11:T13 T15:T18" xr:uid="{06BBA46C-D304-46D0-802F-426E39428C61}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T21 T14:T17 T11:T12" xr:uid="{06BBA46C-D304-46D0-802F-426E39428C61}">
       <formula1>"◯,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -18450,71 +18506,71 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
-        <v>109</v>
+      <c r="B3" s="107" t="s">
+        <v>105</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
-        <v>108</v>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="107" t="s">
+        <v>104</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="83" t="s">
-        <v>107</v>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="107" t="s">
+        <v>103</v>
       </c>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="85"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="109"/>
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -18525,14 +18581,14 @@
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
       <c r="L4" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="47"/>
@@ -18619,10 +18675,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -18633,14 +18689,14 @@
       <c r="J6" s="47"/>
       <c r="K6" s="47"/>
       <c r="L6" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
       <c r="P6" s="46"/>
       <c r="Q6" s="47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
@@ -18727,10 +18783,10 @@
     </row>
     <row r="8" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -18741,14 +18797,14 @@
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
       <c r="L8" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
       <c r="P8" s="46"/>
       <c r="Q8" s="47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
@@ -18835,10 +18891,10 @@
     </row>
     <row r="10" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -18849,14 +18905,14 @@
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
       <c r="L10" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
       <c r="O10" s="47"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
@@ -18943,10 +18999,10 @@
     </row>
     <row r="12" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -18957,14 +19013,14 @@
       <c r="J12" s="47"/>
       <c r="K12" s="47"/>
       <c r="L12" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
@@ -19051,10 +19107,10 @@
     </row>
     <row r="14" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -19065,14 +19121,14 @@
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
       <c r="L14" s="48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
       <c r="O14" s="47"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R14" s="47"/>
       <c r="S14" s="47"/>
@@ -19159,10 +19215,10 @@
     </row>
     <row r="16" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -19173,14 +19229,14 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R16" s="47"/>
       <c r="S16" s="47"/>
